--- a/input/time_series_factor.xlsx
+++ b/input/time_series_factor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A12D82-41FA-479C-83E9-272B6C152AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E025DE-5506-49D6-9CF6-DE72EB439521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="3120" windowWidth="28800" windowHeight="15105" firstSheet="8" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -10726,11 +10726,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D18E90C-6D91-4744-9FCB-A05B59544AB8}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10779,7 +10782,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>-0.68042582690000331</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-0.95768509819680903</v>
@@ -10793,7 +10796,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>-0.67229930191496556</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>-0.83295781453007001</v>
@@ -10807,7 +10810,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>-0.67897363322872639</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>-0.80485660959326355</v>
@@ -10821,7 +10824,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>-0.66203073162886494</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>-0.78981867057924415</v>
@@ -10835,7 +10838,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>-0.65127749552133463</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>-0.77794475503792282</v>
@@ -10849,7 +10852,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>-0.62856645997943639</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>-0.75171647264083308</v>
@@ -10863,7 +10866,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>-0.62262883931939683</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>-0.74109647439251236</v>
@@ -10877,7 +10880,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>-0.61386966551793498</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>-0.72776510107134573</v>
@@ -10891,7 +10894,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>-0.59884444696646777</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>-0.7147060419149136</v>
@@ -10905,7 +10908,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>-0.58212592838721533</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>-0.70240616614065376</v>
@@ -10919,7 +10922,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>-0.58476026852042595</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>-0.69105367590666433</v>
@@ -10933,7 +10936,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>-0.56894577426477011</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>-0.67898522305967135</v>
@@ -10947,7 +10950,7 @@
         <v>2024</v>
       </c>
       <c r="B16">
-        <v>-0.55774239163231498</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>-0.67837200227633576</v>
@@ -10961,7 +10964,7 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>-0.5546484315400706</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>-0.66865521484219381</v>
@@ -10975,7 +10978,7 @@
         <v>2026</v>
       </c>
       <c r="B18">
-        <v>-0.54633744534475526</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>-0.66213777125088935</v>
@@ -10989,7 +10992,7 @@
         <v>2027</v>
       </c>
       <c r="B19">
-        <v>-0.53660398326743075</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>-0.65624918555298262</v>
@@ -11003,7 +11006,7 @@
         <v>2028</v>
       </c>
       <c r="B20">
-        <v>-0.52636891781716488</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>-0.65247439548232655</v>
@@ -11017,7 +11020,7 @@
         <v>2029</v>
       </c>
       <c r="B21">
-        <v>-0.52739427357167223</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>-0.64776174741668557</v>
@@ -11031,7 +11034,7 @@
         <v>2030</v>
       </c>
       <c r="B22">
-        <v>-0.522335868711721</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>-0.64184148070049241</v>
@@ -11045,7 +11048,7 @@
         <v>2031</v>
       </c>
       <c r="B23">
-        <v>-0.51932161850484515</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>-0.63931566276826524</v>
@@ -11059,7 +11062,7 @@
         <v>2032</v>
       </c>
       <c r="B24">
-        <v>-0.51851186880903399</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>-0.63638760354965007</v>
@@ -11073,7 +11076,7 @@
         <v>2033</v>
       </c>
       <c r="B25">
-        <v>-0.52248458236888451</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>-0.63218797948615213</v>
@@ -11087,7 +11090,7 @@
         <v>2034</v>
       </c>
       <c r="B26">
-        <v>-0.51756454907723248</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>-0.62979949109872213</v>
@@ -11101,7 +11104,7 @@
         <v>2035</v>
       </c>
       <c r="B27">
-        <v>-0.51707659305484055</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>-0.62642840586058846</v>
@@ -11115,7 +11118,7 @@
         <v>2036</v>
       </c>
       <c r="B28">
-        <v>-0.51785189045280133</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>-0.62703195252281929</v>
@@ -11129,7 +11132,7 @@
         <v>2037</v>
       </c>
       <c r="B29">
-        <v>-0.52133458277805855</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>-0.62763592693798487</v>
@@ -11143,7 +11146,7 @@
         <v>2038</v>
       </c>
       <c r="B30">
-        <v>-0.52255964231049601</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>-0.62901387736233438</v>
@@ -11157,7 +11160,7 @@
         <v>2039</v>
       </c>
       <c r="B31">
-        <v>-0.52461978177447943</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>-0.62870490298773551</v>
@@ -11171,7 +11174,7 @@
         <v>2040</v>
       </c>
       <c r="B32">
-        <v>-0.52602689591038243</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>-0.63132275325212173</v>
@@ -11185,7 +11188,7 @@
         <v>2041</v>
       </c>
       <c r="B33">
-        <v>-0.52818471105801446</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>-0.63189417814259741</v>
@@ -11199,7 +11202,7 @@
         <v>2042</v>
       </c>
       <c r="B34">
-        <v>-0.52582640158760352</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>-0.63431628626780423</v>
@@ -11213,7 +11216,7 @@
         <v>2043</v>
       </c>
       <c r="B35">
-        <v>-0.52884537398341225</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>-0.63319756552905415</v>
@@ -11227,7 +11230,7 @@
         <v>2044</v>
       </c>
       <c r="B36">
-        <v>-0.53136207561516069</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>-0.63471667603087323</v>
@@ -11241,7 +11244,7 @@
         <v>2045</v>
       </c>
       <c r="B37">
-        <v>-0.53392813259970762</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>-0.63455648067220116</v>
@@ -11255,7 +11258,7 @@
         <v>2046</v>
       </c>
       <c r="B38">
-        <v>-0.53502526357346303</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>-0.63527012935003857</v>
@@ -11269,7 +11272,7 @@
         <v>2047</v>
       </c>
       <c r="B39">
-        <v>-0.5361827911656164</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>-0.63488663198137396</v>
@@ -11283,7 +11286,7 @@
         <v>2048</v>
       </c>
       <c r="B40">
-        <v>-0.53742998980006962</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>-0.6327623871436846</v>
@@ -11297,7 +11300,7 @@
         <v>2049</v>
       </c>
       <c r="B41">
-        <v>-0.53265366720456808</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>-0.63172645653828041</v>
@@ -11311,7 +11314,7 @@
         <v>2050</v>
       </c>
       <c r="B42">
-        <v>-0.52672262067763742</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>-0.63131309782462763</v>
@@ -11325,7 +11328,7 @@
         <v>2051</v>
       </c>
       <c r="B43">
-        <v>-0.52246561759781496</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>-0.62711212192261312</v>
@@ -11339,7 +11342,7 @@
         <v>2052</v>
       </c>
       <c r="B44">
-        <v>-0.51992475724234222</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>-0.62483324297863929</v>
@@ -11353,7 +11356,7 @@
         <v>2053</v>
       </c>
       <c r="B45">
-        <v>-0.51600574555924328</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>-0.62289315139452228</v>
@@ -11367,7 +11370,7 @@
         <v>2054</v>
       </c>
       <c r="B46">
-        <v>-0.51576972424348644</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>-0.6208575795852076</v>
@@ -11381,7 +11384,7 @@
         <v>2055</v>
       </c>
       <c r="B47">
-        <v>-0.51800776098642443</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>-0.62046331508145192</v>
@@ -11395,7 +11398,7 @@
         <v>2056</v>
       </c>
       <c r="B48">
-        <v>-0.51952270196948724</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>-0.61860426418741976</v>
@@ -11409,7 +11412,7 @@
         <v>2057</v>
       </c>
       <c r="B49">
-        <v>-0.52097143042496585</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>-0.61533367788355553</v>
@@ -11423,7 +11426,7 @@
         <v>2058</v>
       </c>
       <c r="B50">
-        <v>-0.51855272309252176</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>-0.61489963029454253</v>
@@ -11437,7 +11440,7 @@
         <v>2059</v>
       </c>
       <c r="B51">
-        <v>-0.51809916084156005</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>-0.61364330813003531</v>
@@ -11451,7 +11454,7 @@
         <v>2060</v>
       </c>
       <c r="B52">
-        <v>-0.51977389607061364</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>-0.61242239408296961</v>
@@ -11465,7 +11468,7 @@
         <v>2061</v>
       </c>
       <c r="B53">
-        <v>-0.51599900885427696</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>-0.61091556383364465</v>
@@ -11479,7 +11482,7 @@
         <v>2062</v>
       </c>
       <c r="B54">
-        <v>-0.51480700328602169</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>-0.60932285274850906</v>
@@ -11493,7 +11496,7 @@
         <v>2063</v>
       </c>
       <c r="B55">
-        <v>-0.51568068499828201</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>-0.60791630071486702</v>
@@ -11507,7 +11510,7 @@
         <v>2064</v>
       </c>
       <c r="B56">
-        <v>-0.51597773825575943</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>-0.60902347078757146</v>
@@ -11521,7 +11524,7 @@
         <v>2065</v>
       </c>
       <c r="B57">
-        <v>-0.50918163905100955</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>-0.60734177454365323</v>
@@ -11535,7 +11538,7 @@
         <v>2066</v>
       </c>
       <c r="B58">
-        <v>-0.51037220329257249</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>-0.60672079418846891</v>
@@ -11549,7 +11552,7 @@
         <v>2067</v>
       </c>
       <c r="B59">
-        <v>-0.50578085391324401</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>-0.6058496118125366</v>
@@ -11563,7 +11566,7 @@
         <v>2068</v>
       </c>
       <c r="B60">
-        <v>-0.50041296740445906</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>-0.60652410750329455</v>
@@ -11577,7 +11580,7 @@
         <v>2069</v>
       </c>
       <c r="B61">
-        <v>-0.50041296740445906</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>-0.60652410750329455</v>
@@ -11591,7 +11594,7 @@
         <v>2070</v>
       </c>
       <c r="B62">
-        <v>-0.50041296740445906</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>-0.60652410750329455</v>
@@ -13034,7 +13037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B1C6-B095-49F5-BE52-65A3AD804239}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -13301,11 +13304,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5368A556-88DB-4602-9465-944BD364475C}">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -13318,923 +13319,259 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1947</v>
-      </c>
-      <c r="B2" s="1">
-        <v>16.598309271060831</v>
+      <c r="A2" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>49.625</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1948</v>
+        <v>1996</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>51.401000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1949</v>
+        <v>1997</v>
       </c>
       <c r="B4">
-        <v>17.600000000000001</v>
+        <v>56.591000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1950</v>
+        <v>1998</v>
       </c>
       <c r="B5">
-        <v>18.2</v>
+        <v>56.639000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1951</v>
+        <v>1999</v>
       </c>
       <c r="B6">
-        <v>18.899999999999999</v>
+        <v>58.283999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1952</v>
+        <v>2000</v>
       </c>
       <c r="B7">
-        <v>19.100000000000001</v>
+        <v>62.091999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1953</v>
+        <v>2001</v>
       </c>
       <c r="B8">
-        <v>20.2</v>
+        <v>69.866</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1954</v>
+        <v>2002</v>
       </c>
       <c r="B9">
-        <v>21.1</v>
+        <v>79.722999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1955</v>
+        <v>2003</v>
       </c>
       <c r="B10">
-        <v>21.9</v>
+        <v>80.504000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>1956</v>
+        <v>2004</v>
       </c>
       <c r="B11">
-        <v>22.3</v>
+        <v>85.302999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>1957</v>
+        <v>2005</v>
       </c>
       <c r="B12">
-        <v>22.7</v>
+        <v>88.814999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1958</v>
+        <v>2006</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>86.427999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1959</v>
+        <v>2007</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>95.81</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>1960</v>
+        <v>2008</v>
       </c>
       <c r="B15">
-        <v>25.5</v>
+        <v>100.345</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>1961</v>
+        <v>2009</v>
       </c>
       <c r="B16">
-        <v>26.2</v>
+        <v>93.822999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1962</v>
+        <v>2010</v>
       </c>
       <c r="B17">
-        <v>26.5</v>
+        <v>97.891000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>1963</v>
+        <v>2011</v>
       </c>
       <c r="B18">
-        <v>27.8</v>
+        <v>98.388999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>1964</v>
+        <v>2012</v>
       </c>
       <c r="B19">
-        <v>29.4</v>
+        <v>97.762</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>97.953000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>1966</v>
+        <v>2014</v>
       </c>
       <c r="B21">
-        <v>30.5</v>
+        <v>97.671999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>1967</v>
+        <v>2015</v>
       </c>
       <c r="B22">
-        <v>31.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>1968</v>
+        <v>2016</v>
       </c>
       <c r="B23">
-        <v>33</v>
+        <v>100.854</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>1969</v>
+        <v>2017</v>
       </c>
       <c r="B24">
-        <v>33.6</v>
+        <v>105.68899999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="B25">
-        <v>34.5</v>
+        <v>107.44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>1971</v>
+        <v>2019</v>
       </c>
       <c r="B26">
-        <v>35.799999999999997</v>
+        <v>110.32899999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>1972</v>
+        <v>2020</v>
       </c>
       <c r="B27">
-        <v>37.299999999999997</v>
+        <v>108.744</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>1973</v>
+        <v>2021</v>
       </c>
       <c r="B28">
-        <v>39.799999999999997</v>
+        <v>113.21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>1974</v>
+        <v>2022</v>
       </c>
       <c r="B29">
-        <v>38.799999999999997</v>
+        <v>118.48699999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>1975</v>
+        <v>2023</v>
       </c>
       <c r="B30">
-        <v>38.200000000000003</v>
+        <v>139.10300000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>1976</v>
+        <v>2024</v>
       </c>
       <c r="B31">
-        <v>39.299999999999997</v>
+        <v>139.93761800000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>1977</v>
+        <v>2025</v>
       </c>
       <c r="B32">
-        <v>40.299999999999997</v>
+        <v>142.45649512400001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>1978</v>
+        <v>2026</v>
       </c>
       <c r="B33">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>1979</v>
-      </c>
-      <c r="B34">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>1980</v>
-      </c>
-      <c r="B35">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1981</v>
-      </c>
-      <c r="B36">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>1982</v>
-      </c>
-      <c r="B37">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>1983</v>
-      </c>
-      <c r="B38">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>1984</v>
-      </c>
-      <c r="B39">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>1985</v>
-      </c>
-      <c r="B40">
-        <v>47.9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>1986</v>
-      </c>
-      <c r="B41">
-        <v>49.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>1987</v>
-      </c>
-      <c r="B42">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>1988</v>
-      </c>
-      <c r="B43">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>1989</v>
-      </c>
-      <c r="B44">
-        <v>56.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>1990</v>
-      </c>
-      <c r="B45">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>1991</v>
-      </c>
-      <c r="B46">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>1992</v>
-      </c>
-      <c r="B47">
-        <v>56.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>1993</v>
-      </c>
-      <c r="B48">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>1994</v>
-      </c>
-      <c r="B49">
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B50">
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>1996</v>
-      </c>
-      <c r="B51">
-        <v>62.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B52">
-        <v>65.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B53">
-        <v>67.8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>1999</v>
-      </c>
-      <c r="B54">
-        <v>69.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B55">
-        <v>72.400000000000006</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B56">
-        <v>73.900000000000006</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B57">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B58">
-        <v>77.7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B59">
-        <v>79.599999999999994</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B60">
-        <v>81.599999999999994</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B61">
-        <v>83.7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B62">
-        <v>85.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B63">
-        <v>85.4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B64">
-        <v>81.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B65">
-        <v>83.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B66">
-        <v>84.8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B67">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B68">
-        <v>87.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B69">
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B70">
-        <v>92.6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B71">
-        <v>94.7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B72">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B73">
-        <v>98.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B75">
-        <v>90.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B76">
-        <v>97.4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B77">
-        <v>99.757148331179067</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B78">
-        <v>102.17134130563514</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B79">
-        <v>104.64395944375532</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B80">
-        <v>107.17641667548857</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>2026</v>
-      </c>
-      <c r="B81">
-        <v>109.77016114888056</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>2027</v>
-      </c>
-      <c r="B82">
-        <v>112.42667605817564</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>2028</v>
-      </c>
-      <c r="B83">
-        <v>115.1474804919594</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>2029</v>
-      </c>
-      <c r="B84">
-        <v>117.9341303018269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>2030</v>
-      </c>
-      <c r="B85">
-        <v>120.78821899207334</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>2031</v>
-      </c>
-      <c r="B86">
-        <v>123.7113786309158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>2032</v>
-      </c>
-      <c r="B87">
-        <v>126.70528078376718</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>2033</v>
-      </c>
-      <c r="B88">
-        <v>129.77163746909605</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>2034</v>
-      </c>
-      <c r="B89">
-        <v>132.912202137419</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>2035</v>
-      </c>
-      <c r="B90">
-        <v>136.12877067398526</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>2036</v>
-      </c>
-      <c r="B91">
-        <v>139.42318242572699</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>2037</v>
-      </c>
-      <c r="B92">
-        <v>142.79732125306251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>2038</v>
-      </c>
-      <c r="B93">
-        <v>146.25311660715386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>2039</v>
-      </c>
-      <c r="B94">
-        <v>149.79254463323488</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>2040</v>
-      </c>
-      <c r="B95">
-        <v>153.41762930064039</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>2041</v>
-      </c>
-      <c r="B96">
-        <v>157.13044356018301</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>2042</v>
-      </c>
-      <c r="B97">
-        <v>160.93311052953939</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>2043</v>
-      </c>
-      <c r="B98">
-        <v>164.82780470732337</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>2044</v>
-      </c>
-      <c r="B99">
-        <v>168.81675321654077</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>2045</v>
-      </c>
-      <c r="B100">
-        <v>172.90223707813664</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>2046</v>
-      </c>
-      <c r="B101">
-        <v>177.08659251536309</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>2047</v>
-      </c>
-      <c r="B102">
-        <v>181.37221228971399</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>2048</v>
-      </c>
-      <c r="B103">
-        <v>185.76154706918993</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>2049</v>
-      </c>
-      <c r="B104">
-        <v>190.25710682967642</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>2050</v>
-      </c>
-      <c r="B105">
-        <v>194.86146229023626</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>2051</v>
-      </c>
-      <c r="B106">
-        <v>199.57724638313712</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>2052</v>
-      </c>
-      <c r="B107">
-        <v>204.40715575945461</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>2053</v>
-      </c>
-      <c r="B108">
-        <v>209.35395233111228</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>2054</v>
-      </c>
-      <c r="B109">
-        <v>214.42046485023982</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>2055</v>
-      </c>
-      <c r="B110">
-        <v>219.60959052675298</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>2056</v>
-      </c>
-      <c r="B111">
-        <v>224.92429668508001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>2057</v>
-      </c>
-      <c r="B112">
-        <v>230.36762246098209</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>2058</v>
-      </c>
-      <c r="B113">
-        <v>235.9426805394379</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>2059</v>
-      </c>
-      <c r="B114">
-        <v>241.65265893458633</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>2060</v>
-      </c>
-      <c r="B115">
-        <v>247.50082281274493</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>2061</v>
-      </c>
-      <c r="B116">
-        <v>253.49051635954683</v>
+        <v>146.872646472844</v>
       </c>
     </row>
   </sheetData>
@@ -14452,10 +13789,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3F720F-7C77-40C9-9D26-48C5FF4C5828}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14470,234 +13807,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="B2">
-        <v>143.29576929253196</v>
+        <v>94.248199470068826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2001</v>
+      <c r="A3">
+        <v>2012</v>
       </c>
       <c r="B3">
-        <v>143.98221858016308</v>
+        <v>95.957325551117478</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2002</v>
+      <c r="A4">
+        <v>2013</v>
       </c>
       <c r="B4">
-        <v>146.66557346756156</v>
+        <v>99.174362114125685</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2003</v>
+      <c r="A5">
+        <v>2014</v>
       </c>
       <c r="B5">
-        <v>149.63794972406183</v>
+        <v>100.66371648026524</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2004</v>
+      <c r="A6">
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>154.58310870370369</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2005</v>
+      <c r="A7">
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>158.46724928510457</v>
+        <v>100.1526314090364</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2006</v>
+      <c r="A8">
+        <v>2017</v>
       </c>
       <c r="B8">
-        <v>162.59473676470591</v>
+        <v>108.9715723527241</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2007</v>
+      <c r="A9">
+        <v>2018</v>
       </c>
       <c r="B9">
-        <v>165.95105268948654</v>
+        <v>119.4209877683267</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2008</v>
+      <c r="A10">
+        <v>2019</v>
       </c>
       <c r="B10">
-        <v>162.87314316214093</v>
+        <v>131.86907674284208</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2009</v>
+      <c r="A11">
+        <v>2020</v>
       </c>
       <c r="B11">
-        <v>161.37643170708242</v>
+        <v>133.30054140014889</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2010</v>
+      <c r="A12">
+        <v>2021</v>
       </c>
       <c r="B12">
-        <v>159.65128374347503</v>
+        <v>132.02654924666311</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2011</v>
+      <c r="A13">
+        <v>2022</v>
       </c>
       <c r="B13">
-        <v>155.56126007316206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B14">
-        <v>153.17917333506765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B15">
-        <v>151.43864936548223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B16">
-        <v>151.03810470833329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B17">
-        <v>154.63866195833333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B18">
-        <v>157.19974334657394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B19">
-        <v>156.93085901031591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B20">
-        <v>157.85818999055712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B21">
-        <v>160.03142759740257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B22">
-        <v>162.12163966045293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B23">
-        <v>168.45206453568233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B24">
-        <v>162.20759979943486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B25">
-        <v>164.79602326504056</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B26">
-        <v>163.94277212602779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B27">
-        <v>163.18350470648323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>2026</v>
-      </c>
-      <c r="B28">
-        <v>163.21856984752483</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>2027</v>
-      </c>
-      <c r="B29">
-        <v>163.03155667222143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>2028</v>
-      </c>
-      <c r="B30">
-        <v>163.81254899663941</v>
+        <v>134.31986990977705</v>
       </c>
     </row>
   </sheetData>

--- a/input/time_series_factor.xlsx
+++ b/input/time_series_factor.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E025DE-5506-49D6-9CF6-DE72EB439521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042F1DBE-8E09-4954-8168-0087E2F40330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="HU_cohabitation_adjustment" sheetId="15" r:id="rId2"/>
-    <sheet name="HU_fertility_adjustment" sheetId="19" r:id="rId3"/>
-    <sheet name="HU_utility_adj_smales" sheetId="16" r:id="rId4"/>
-    <sheet name="HU_utility_adj_sfemales" sheetId="17" r:id="rId5"/>
-    <sheet name="HU_utility_adj_couples" sheetId="18" r:id="rId6"/>
+    <sheet name="PL_cohabitation_adjustment" sheetId="15" r:id="rId2"/>
+    <sheet name="PL_fertility_adjustment" sheetId="19" r:id="rId3"/>
+    <sheet name="PL_utility_adj_smales" sheetId="16" r:id="rId4"/>
+    <sheet name="PL_utility_adj_sfemales" sheetId="17" r:id="rId5"/>
+    <sheet name="PL_utility_adj_couples" sheetId="18" r:id="rId6"/>
     <sheet name="HU_gdp" sheetId="2" r:id="rId7"/>
     <sheet name="HU_inflation" sheetId="7" r:id="rId8"/>
     <sheet name="HU_wage_growth" sheetId="8" r:id="rId9"/>
@@ -28,6 +28,9 @@
     <sheet name="UK_carer_hourly_wage" sheetId="13" r:id="rId13"/>
     <sheet name="UK raw data" sheetId="12" r:id="rId14"/>
     <sheet name="IT" sheetId="4" r:id="rId15"/>
+    <sheet name="PL_gdp" sheetId="20" r:id="rId16"/>
+    <sheet name="PL_inflation" sheetId="21" r:id="rId17"/>
+    <sheet name="PL_wage_growth" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
   <si>
     <t>Year</t>
   </si>
@@ -10722,13 +10725,723 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB6812C-5BB0-43F7-B52C-EA13500B4AA8}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>55.396999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>60.548999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>63.414999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <v>66.805999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <v>65.716999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>73.509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>82.805999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>80.259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>70.912999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>72.320999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>83.512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>87.747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>93.778000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>105.005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>88.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>97.423000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>97.341999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>97.942999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>97.909000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21">
+        <v>98.691999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>95.974999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>100.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25">
+        <v>101.232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26">
+        <v>103.419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2020</v>
+      </c>
+      <c r="B27">
+        <v>104.27500000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2021</v>
+      </c>
+      <c r="B28">
+        <v>106.90300000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2022</v>
+      </c>
+      <c r="B29">
+        <v>115.27800000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2023</v>
+      </c>
+      <c r="B30">
+        <v>130.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2024</v>
+      </c>
+      <c r="B31">
+        <v>134.1987</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2025</v>
+      </c>
+      <c r="B32">
+        <v>139.02985320000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2026</v>
+      </c>
+      <c r="B33">
+        <v>143.33977864920001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E899AF-6766-40B7-B849-58604785D824}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2002</v>
+      </c>
+      <c r="B3">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2005</v>
+      </c>
+      <c r="B6">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2007</v>
+      </c>
+      <c r="B8">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="B9">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2010</v>
+      </c>
+      <c r="B11">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2011</v>
+      </c>
+      <c r="B12">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2013</v>
+      </c>
+      <c r="B14">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2014</v>
+      </c>
+      <c r="B15">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2015</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2016</v>
+      </c>
+      <c r="B17">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2017</v>
+      </c>
+      <c r="B18">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2018</v>
+      </c>
+      <c r="B19">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2019</v>
+      </c>
+      <c r="B20">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2020</v>
+      </c>
+      <c r="B21">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2021</v>
+      </c>
+      <c r="B22">
+        <v>114.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2022</v>
+      </c>
+      <c r="B23">
+        <v>129.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2023</v>
+      </c>
+      <c r="B24">
+        <v>143.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2024</v>
+      </c>
+      <c r="B25">
+        <v>148.69999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2025</v>
+      </c>
+      <c r="B26">
+        <v>155.68889999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A47DFC1-F794-4B22-BEC7-BA8732D9DC19}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>66.18348273888995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>67.117493604842593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>70.839133028435072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>73.545881518819456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>73.813917495088987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>75.578743395183594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>78.922964609627272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>84.466363314351113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>89.520282035032892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>90.781802831978268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>91.311968637075253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>92.057669138636911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>91.504771893586906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>93.431400913610474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>96.122867563901806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>104.48132580247275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
+        <v>109.02110111312125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20">
+        <v>115.03316963228426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21">
+        <v>120.13473435318336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22">
+        <v>122.93862657883929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2021</v>
+      </c>
+      <c r="B23">
+        <v>126.15888784113081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2022</v>
+      </c>
+      <c r="B24">
+        <v>124.43175135110593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2023</v>
+      </c>
+      <c r="B25">
+        <v>126.25428562124642</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D18E90C-6D91-4744-9FCB-A05B59544AB8}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11612,9 +12325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00E6D01-ED8F-4196-BCE1-0F54EC92EC33}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B62"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11665,7 +12376,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>-0.44081411312763502</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-0.48463199296432402</v>
@@ -11679,7 +12390,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>-0.41178003442893141</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>-0.44279476957698699</v>
@@ -11693,7 +12404,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>-0.38195691653651342</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>-0.39501557684159466</v>
@@ -11707,7 +12418,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>-0.35662154819469444</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>-0.37898938142570604</v>
@@ -11721,7 +12432,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>-0.33645665993640061</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>-0.35746845133604671</v>
@@ -11735,7 +12446,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>-0.31569377810596422</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>-0.33551640350223444</v>
@@ -11749,7 +12460,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>-0.29611480221652442</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>-0.31611792786789245</v>
@@ -11763,7 +12474,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>-0.279462622342386</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>-0.29419113555012588</v>
@@ -11777,7 +12488,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>-0.26591979180000819</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>-0.275174972273524</v>
@@ -11791,7 +12502,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>-0.25543875103684177</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>-0.25957357188884783</v>
@@ -11805,7 +12516,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>-0.24930347300809638</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>-0.2522555041315423</v>
@@ -11819,7 +12530,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>-0.2471951557625644</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>-0.2484037751560034</v>
@@ -11833,7 +12544,7 @@
         <v>2024</v>
       </c>
       <c r="B16">
-        <v>-0.24727245707738721</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>-0.24178593173429327</v>
@@ -11847,7 +12558,7 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>-0.23666450179745918</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>-0.24449858212979714</v>
@@ -11861,7 +12572,7 @@
         <v>2026</v>
       </c>
       <c r="B18">
-        <v>-0.23784361977757321</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>-0.24903198566118756</v>
@@ -11875,7 +12586,7 @@
         <v>2027</v>
       </c>
       <c r="B19">
-        <v>-0.23889278870939884</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>-0.25264201070565656</v>
@@ -11889,7 +12600,7 @@
         <v>2028</v>
       </c>
       <c r="B20">
-        <v>-0.23893998110579662</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>-0.25364233752894055</v>
@@ -11903,7 +12614,7 @@
         <v>2029</v>
       </c>
       <c r="B21">
-        <v>-0.23843847695520243</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>-0.24768152163486329</v>
@@ -11917,7 +12628,7 @@
         <v>2030</v>
       </c>
       <c r="B22">
-        <v>-0.24968508459850719</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>-0.24974442678892514</v>
@@ -11931,7 +12642,7 @@
         <v>2031</v>
       </c>
       <c r="B23">
-        <v>-0.25091556848125485</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>-0.24926794764317603</v>
@@ -11945,7 +12656,7 @@
         <v>2032</v>
       </c>
       <c r="B24">
-        <v>-0.25300049353502324</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>-0.250134489952685</v>
@@ -11959,7 +12670,7 @@
         <v>2033</v>
       </c>
       <c r="B25">
-        <v>-0.25769551121458001</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>-0.25159703697288732</v>
@@ -11973,7 +12684,7 @@
         <v>2034</v>
       </c>
       <c r="B26">
-        <v>-0.26297059722398985</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>-0.25383394104860174</v>
@@ -11987,7 +12698,7 @@
         <v>2035</v>
       </c>
       <c r="B27">
-        <v>-0.26957256055242024</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>-0.26016905205776741</v>
@@ -12001,7 +12712,7 @@
         <v>2036</v>
       </c>
       <c r="B28">
-        <v>-0.27813755313923438</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>-0.27274303604096028</v>
@@ -12015,7 +12726,7 @@
         <v>2037</v>
       </c>
       <c r="B29">
-        <v>-0.27474637053283057</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>-0.27650991999973468</v>
@@ -12029,7 +12740,7 @@
         <v>2038</v>
       </c>
       <c r="B30">
-        <v>-0.28518071039366039</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>-0.28460685361503957</v>
@@ -12043,7 +12754,7 @@
         <v>2039</v>
       </c>
       <c r="B31">
-        <v>-0.2959050156529302</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>-0.29665890398267214</v>
@@ -12057,7 +12768,7 @@
         <v>2040</v>
       </c>
       <c r="B32">
-        <v>-0.2928526070865794</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>-0.30980188741828268</v>
@@ -12071,7 +12782,7 @@
         <v>2041</v>
       </c>
       <c r="B33">
-        <v>-0.30204917920681157</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>-0.3249147353451094</v>
@@ -12085,7 +12796,7 @@
         <v>2042</v>
       </c>
       <c r="B34">
-        <v>-0.32304908725990761</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>-0.33013144629608343</v>
@@ -12099,7 +12810,7 @@
         <v>2043</v>
       </c>
       <c r="B35">
-        <v>-0.32697846249115198</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>-0.33400456174430643</v>
@@ -12113,7 +12824,7 @@
         <v>2044</v>
       </c>
       <c r="B36">
-        <v>-0.33007523822817458</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>-0.34264176458383305</v>
@@ -12127,7 +12838,7 @@
         <v>2045</v>
       </c>
       <c r="B37">
-        <v>-0.34395374911145921</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>-0.34821267929122846</v>
@@ -12141,7 +12852,7 @@
         <v>2046</v>
       </c>
       <c r="B38">
-        <v>-0.32911187304579681</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>-0.34456161150133158</v>
@@ -12155,7 +12866,7 @@
         <v>2047</v>
       </c>
       <c r="B39">
-        <v>-0.32707905887567962</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>-0.34561532498119613</v>
@@ -12169,7 +12880,7 @@
         <v>2048</v>
       </c>
       <c r="B40">
-        <v>-0.32548082652979621</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>-0.33873736519970848</v>
@@ -12183,7 +12894,7 @@
         <v>2049</v>
       </c>
       <c r="B41">
-        <v>-0.32367111158351802</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>-0.33739651765499096</v>
@@ -12197,7 +12908,7 @@
         <v>2050</v>
       </c>
       <c r="B42">
-        <v>-0.31183478961522498</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>-0.33804860844064244</v>
@@ -12211,7 +12922,7 @@
         <v>2051</v>
       </c>
       <c r="B43">
-        <v>-0.30933783525634517</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>-0.33657044977191414</v>
@@ -12225,7 +12936,7 @@
         <v>2052</v>
       </c>
       <c r="B44">
-        <v>-0.295502572399851</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>-0.33656675024980498</v>
@@ -12239,7 +12950,7 @@
         <v>2053</v>
       </c>
       <c r="B45">
-        <v>-0.28426566851705959</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>-0.33985483078933226</v>
@@ -12253,7 +12964,7 @@
         <v>2054</v>
       </c>
       <c r="B46">
-        <v>-0.2846970607117626</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>-0.33668670713123178</v>
@@ -12267,7 +12978,7 @@
         <v>2055</v>
       </c>
       <c r="B47">
-        <v>-0.29652418423720162</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>-0.33750504731956005</v>
@@ -12281,7 +12992,7 @@
         <v>2056</v>
       </c>
       <c r="B48">
-        <v>-0.31354110133198604</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>-0.34079779337557842</v>
@@ -12295,7 +13006,7 @@
         <v>2057</v>
       </c>
       <c r="B49">
-        <v>-0.3278678462801522</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>-0.33872371122332023</v>
@@ -12309,7 +13020,7 @@
         <v>2058</v>
       </c>
       <c r="B50">
-        <v>-0.33932540739172184</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>-0.33869137298543883</v>
@@ -12323,7 +13034,7 @@
         <v>2059</v>
       </c>
       <c r="B51">
-        <v>-0.33891825783445723</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>-0.34103219793504497</v>
@@ -12337,7 +13048,7 @@
         <v>2060</v>
       </c>
       <c r="B52">
-        <v>-0.33791821188593724</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>-0.34050601889900228</v>
@@ -12351,7 +13062,7 @@
         <v>2061</v>
       </c>
       <c r="B53">
-        <v>-0.33627771003385082</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>-0.33767373591580502</v>
@@ -12365,7 +13076,7 @@
         <v>2062</v>
       </c>
       <c r="B54">
-        <v>-0.33352763519739703</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>-0.33668796343699775</v>
@@ -12379,7 +13090,7 @@
         <v>2063</v>
       </c>
       <c r="B55">
-        <v>-0.33028054032751103</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>-0.33369114324283816</v>
@@ -12393,7 +13104,7 @@
         <v>2064</v>
       </c>
       <c r="B56">
-        <v>-0.32636589095194396</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>-0.33282968867461227</v>
@@ -12407,7 +13118,7 @@
         <v>2065</v>
       </c>
       <c r="B57">
-        <v>-0.32296966045752384</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>-0.32675564471673357</v>
@@ -12421,7 +13132,7 @@
         <v>2066</v>
       </c>
       <c r="B58">
-        <v>-0.3197457208767488</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>-0.32143826156637562</v>
@@ -12435,7 +13146,7 @@
         <v>2067</v>
       </c>
       <c r="B59">
-        <v>-0.31773659008754962</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>-0.31711471655916201</v>
@@ -12449,7 +13160,7 @@
         <v>2068</v>
       </c>
       <c r="B60">
-        <v>-0.31670999077073703</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>-0.31670999077073719</v>
@@ -12463,7 +13174,7 @@
         <v>2069</v>
       </c>
       <c r="B61">
-        <v>-0.31670999077073703</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>-0.31670999077073719</v>
@@ -12477,7 +13188,7 @@
         <v>2070</v>
       </c>
       <c r="B62">
-        <v>-0.31670999077073703</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>-0.31670999077073719</v>
@@ -12496,7 +13207,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12767,7 +13478,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13037,7 +13748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B1C6-B095-49F5-BE52-65A3AD804239}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -13583,9 +14296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2B7FF6-C3ED-409F-83AB-FB5EAD53E39E}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -13791,9 +14502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3F720F-7C77-40C9-9D26-48C5FF4C5828}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/input/time_series_factor.xlsx
+++ b/input/time_series_factor.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042F1DBE-8E09-4954-8168-0087E2F40330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84027B5-6C9A-40BF-9424-E2621F1DBD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="PL_cohabitation_adjustment" sheetId="15" r:id="rId2"/>
-    <sheet name="PL_fertility_adjustment" sheetId="19" r:id="rId3"/>
-    <sheet name="PL_utility_adj_smales" sheetId="16" r:id="rId4"/>
-    <sheet name="PL_utility_adj_sfemales" sheetId="17" r:id="rId5"/>
-    <sheet name="PL_utility_adj_couples" sheetId="18" r:id="rId6"/>
-    <sheet name="HU_gdp" sheetId="2" r:id="rId7"/>
-    <sheet name="HU_inflation" sheetId="7" r:id="rId8"/>
-    <sheet name="HU_wage_growth" sheetId="8" r:id="rId9"/>
-    <sheet name="UK_saving_returns" sheetId="9" r:id="rId10"/>
-    <sheet name="UK_debt_cost_low" sheetId="10" r:id="rId11"/>
-    <sheet name="UK_debt_cost_hi" sheetId="11" r:id="rId12"/>
-    <sheet name="UK_carer_hourly_wage" sheetId="13" r:id="rId13"/>
-    <sheet name="UK raw data" sheetId="12" r:id="rId14"/>
-    <sheet name="IT" sheetId="4" r:id="rId15"/>
-    <sheet name="PL_gdp" sheetId="20" r:id="rId16"/>
-    <sheet name="PL_inflation" sheetId="21" r:id="rId17"/>
-    <sheet name="PL_wage_growth" sheetId="22" r:id="rId18"/>
+    <sheet name="PL_retirement_adjustment" sheetId="23" r:id="rId2"/>
+    <sheet name="PL_cohabitation_adjustment" sheetId="15" r:id="rId3"/>
+    <sheet name="PL_fertility_adjustment" sheetId="19" r:id="rId4"/>
+    <sheet name="PL_utility_adj_smales" sheetId="16" r:id="rId5"/>
+    <sheet name="PL_utility_adj_sfemales" sheetId="17" r:id="rId6"/>
+    <sheet name="PL_utility_adj_couples" sheetId="18" r:id="rId7"/>
+    <sheet name="HU_gdp" sheetId="2" r:id="rId8"/>
+    <sheet name="HU_inflation" sheetId="7" r:id="rId9"/>
+    <sheet name="HU_wage_growth" sheetId="8" r:id="rId10"/>
+    <sheet name="UK_saving_returns" sheetId="9" r:id="rId11"/>
+    <sheet name="UK_debt_cost_low" sheetId="10" r:id="rId12"/>
+    <sheet name="UK_debt_cost_hi" sheetId="11" r:id="rId13"/>
+    <sheet name="UK_carer_hourly_wage" sheetId="13" r:id="rId14"/>
+    <sheet name="UK raw data" sheetId="12" r:id="rId15"/>
+    <sheet name="IT" sheetId="4" r:id="rId16"/>
+    <sheet name="PL_gdp" sheetId="20" r:id="rId17"/>
+    <sheet name="PL_inflation" sheetId="21" r:id="rId18"/>
+    <sheet name="PL_wage_growth" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="56">
   <si>
     <t>Year</t>
   </si>
@@ -1126,6 +1127,123 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3F720F-7C77-40C9-9D26-48C5FF4C5828}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2011</v>
+      </c>
+      <c r="B2">
+        <v>94.248199470068826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2012</v>
+      </c>
+      <c r="B3">
+        <v>95.957325551117478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2013</v>
+      </c>
+      <c r="B4">
+        <v>99.174362114125685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5">
+        <v>100.66371648026524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7">
+        <v>100.1526314090364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>108.9715723527241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9">
+        <v>119.4209877683267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10">
+        <v>131.86907674284208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2020</v>
+      </c>
+      <c r="B11">
+        <v>133.30054140014889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2021</v>
+      </c>
+      <c r="B12">
+        <v>132.02654924666311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2022</v>
+      </c>
+      <c r="B13">
+        <v>134.31986990977705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE1C571-12D2-48EC-9676-C9293E844074}">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -1442,7 +1560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF70C8B1-8A2A-4CB2-AE85-70911F99E869}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -1697,7 +1815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5D1202-306C-4A3E-BE31-47D9872C9300}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -1952,7 +2070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C9E94E-195D-449C-95FA-8827E1CD938F}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2079,7 +2197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8E4EE1-1BD6-4E11-9F6E-85D51F484400}">
   <dimension ref="A1:BG120"/>
   <sheetViews>
@@ -10118,7 +10236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB137BA4-4035-472D-AA2B-29C110ABC52B}">
   <dimension ref="A1:B74"/>
   <sheetViews>
@@ -10725,7 +10843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB6812C-5BB0-43F7-B52C-EA13500B4AA8}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -11002,7 +11120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E899AF-6766-40B7-B849-58604785D824}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -11224,7 +11342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A47DFC1-F794-4B22-BEC7-BA8732D9DC19}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -11438,6 +11556,515 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF94849-A6CD-439B-B269-5434C4C1F099}">
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2036</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2037</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2038</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2039</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2040</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2041</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2042</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2043</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2044</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2045</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2046</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2047</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2048</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2049</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2050</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2051</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2052</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2053</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2054</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2055</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2056</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2057</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2058</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2059</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2060</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2061</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2062</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2063</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2064</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2065</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2066</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2067</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2068</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2069</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2070</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D18E90C-6D91-4744-9FCB-A05B59544AB8}">
   <dimension ref="A1:F62"/>
   <sheetViews>
@@ -12321,11 +12948,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00E6D01-ED8F-4196-BCE1-0F54EC92EC33}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -13202,7 +13829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF35D1-EA41-4B4F-8246-ED1C76F988F0}">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -13473,7 +14100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7429DD-438F-4396-BA37-1ECD20FCD2D9}">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -13744,7 +14371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B1C6-B095-49F5-BE52-65A3AD804239}">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -14015,7 +14642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5368A556-88DB-4602-9465-944BD364475C}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -14292,7 +14919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2B7FF6-C3ED-409F-83AB-FB5EAD53E39E}">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -14496,121 +15123,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3F720F-7C77-40C9-9D26-48C5FF4C5828}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2011</v>
-      </c>
-      <c r="B2">
-        <v>94.248199470068826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2012</v>
-      </c>
-      <c r="B3">
-        <v>95.957325551117478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2013</v>
-      </c>
-      <c r="B4">
-        <v>99.174362114125685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2014</v>
-      </c>
-      <c r="B5">
-        <v>100.66371648026524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2015</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2016</v>
-      </c>
-      <c r="B7">
-        <v>100.1526314090364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2017</v>
-      </c>
-      <c r="B8">
-        <v>108.9715723527241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2018</v>
-      </c>
-      <c r="B9">
-        <v>119.4209877683267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2019</v>
-      </c>
-      <c r="B10">
-        <v>131.86907674284208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2020</v>
-      </c>
-      <c r="B11">
-        <v>133.30054140014889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2021</v>
-      </c>
-      <c r="B12">
-        <v>132.02654924666311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2022</v>
-      </c>
-      <c r="B13">
-        <v>134.31986990977705</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/input/time_series_factor.xlsx
+++ b/input/time_series_factor.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84027B5-6C9A-40BF-9424-E2621F1DBD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D26F8-4C56-41A3-9659-D8CCCDCE3C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="4035" windowWidth="28800" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="PL_retirement_adjustment" sheetId="23" r:id="rId2"/>
-    <sheet name="PL_cohabitation_adjustment" sheetId="15" r:id="rId3"/>
-    <sheet name="PL_fertility_adjustment" sheetId="19" r:id="rId4"/>
-    <sheet name="PL_utility_adj_smales" sheetId="16" r:id="rId5"/>
-    <sheet name="PL_utility_adj_sfemales" sheetId="17" r:id="rId6"/>
-    <sheet name="PL_utility_adj_couples" sheetId="18" r:id="rId7"/>
-    <sheet name="HU_gdp" sheetId="2" r:id="rId8"/>
-    <sheet name="HU_inflation" sheetId="7" r:id="rId9"/>
-    <sheet name="HU_wage_growth" sheetId="8" r:id="rId10"/>
-    <sheet name="UK_saving_returns" sheetId="9" r:id="rId11"/>
-    <sheet name="UK_debt_cost_low" sheetId="10" r:id="rId12"/>
-    <sheet name="UK_debt_cost_hi" sheetId="11" r:id="rId13"/>
-    <sheet name="UK_carer_hourly_wage" sheetId="13" r:id="rId14"/>
-    <sheet name="UK raw data" sheetId="12" r:id="rId15"/>
-    <sheet name="IT" sheetId="4" r:id="rId16"/>
-    <sheet name="PL_gdp" sheetId="20" r:id="rId17"/>
-    <sheet name="PL_inflation" sheetId="21" r:id="rId18"/>
-    <sheet name="PL_wage_growth" sheetId="22" r:id="rId19"/>
+    <sheet name="PL_students_adjustment" sheetId="24" r:id="rId2"/>
+    <sheet name="PL_retirement_adjustment" sheetId="23" r:id="rId3"/>
+    <sheet name="PL_cohabitation_adjustment" sheetId="15" r:id="rId4"/>
+    <sheet name="PL_fertility_adjustment" sheetId="19" r:id="rId5"/>
+    <sheet name="PL_utility_adj_smales" sheetId="16" r:id="rId6"/>
+    <sheet name="PL_utility_adj_sfemales" sheetId="17" r:id="rId7"/>
+    <sheet name="PL_utility_adj_couples" sheetId="18" r:id="rId8"/>
+    <sheet name="HU_gdp" sheetId="2" r:id="rId9"/>
+    <sheet name="HU_inflation" sheetId="7" r:id="rId10"/>
+    <sheet name="HU_wage_growth" sheetId="8" r:id="rId11"/>
+    <sheet name="UK_saving_returns" sheetId="9" r:id="rId12"/>
+    <sheet name="UK_debt_cost_low" sheetId="10" r:id="rId13"/>
+    <sheet name="UK_debt_cost_hi" sheetId="11" r:id="rId14"/>
+    <sheet name="UK_carer_hourly_wage" sheetId="13" r:id="rId15"/>
+    <sheet name="UK raw data" sheetId="12" r:id="rId16"/>
+    <sheet name="IT" sheetId="4" r:id="rId17"/>
+    <sheet name="PL_gdp" sheetId="20" r:id="rId18"/>
+    <sheet name="PL_inflation" sheetId="21" r:id="rId19"/>
+    <sheet name="PL_wage_growth" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="56">
   <si>
     <t>Year</t>
   </si>
@@ -1127,6 +1128,212 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2B7FF6-C3ED-409F-83AB-FB5EAD53E39E}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B2" s="13">
+        <v>68.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B3" s="13">
+        <v>71.760000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B4" s="13">
+        <v>77.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="13">
+        <v>82.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B6" s="13">
+        <v>85.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B7" s="13">
+        <v>89.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="13">
+        <v>92.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="13">
+        <v>98.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="13">
+        <v>99.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="13">
+        <v>99.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="13">
+        <v>100.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="13">
+        <v>102.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="13">
+        <v>105.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="13">
+        <v>109.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="13">
+        <v>113.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="13">
+        <v>119.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="13">
+        <v>137.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="13">
+        <v>160.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B21" s="13">
+        <v>167.17418999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B22" s="13">
+        <v>173.35963502999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B23" s="13">
+        <v>173.35963502999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2027</v>
+      </c>
+      <c r="B24" s="13">
+        <v>173.35963502999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3F720F-7C77-40C9-9D26-48C5FF4C5828}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -1243,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE1C571-12D2-48EC-9676-C9293E844074}">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -1560,7 +1767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF70C8B1-8A2A-4CB2-AE85-70911F99E869}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -1815,7 +2022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5D1202-306C-4A3E-BE31-47D9872C9300}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -2070,7 +2277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C9E94E-195D-449C-95FA-8827E1CD938F}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2197,7 +2404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8E4EE1-1BD6-4E11-9F6E-85D51F484400}">
   <dimension ref="A1:BG120"/>
   <sheetViews>
@@ -10236,7 +10443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB137BA4-4035-472D-AA2B-29C110ABC52B}">
   <dimension ref="A1:B74"/>
   <sheetViews>
@@ -10843,7 +11050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB6812C-5BB0-43F7-B52C-EA13500B4AA8}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -11120,7 +11327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E899AF-6766-40B7-B849-58604785D824}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -11342,7 +11549,516 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C683A821-437B-4D81-97F1-7CA9A663AC24}">
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2036</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2037</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2038</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2039</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2040</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2041</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2042</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2043</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2044</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2045</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2046</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2047</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2048</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2049</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2050</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2051</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2052</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2053</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2054</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2055</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2056</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2057</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2058</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2059</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2060</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2061</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2062</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2063</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2064</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2065</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2066</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2067</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2068</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2069</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2070</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A47DFC1-F794-4B22-BEC7-BA8732D9DC19}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -11555,11 +12271,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF94849-A6CD-439B-B269-5434C4C1F099}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12064,7 +12780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D18E90C-6D91-4744-9FCB-A05B59544AB8}">
   <dimension ref="A1:F62"/>
   <sheetViews>
@@ -12948,7 +13664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00E6D01-ED8F-4196-BCE1-0F54EC92EC33}">
   <dimension ref="A1:F62"/>
   <sheetViews>
@@ -13829,7 +14545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF35D1-EA41-4B4F-8246-ED1C76F988F0}">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -14100,7 +14816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7429DD-438F-4396-BA37-1ECD20FCD2D9}">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -14371,7 +15087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B1C6-B095-49F5-BE52-65A3AD804239}">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -14642,7 +15358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5368A556-88DB-4602-9465-944BD364475C}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -14917,210 +15633,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2B7FF6-C3ED-409F-83AB-FB5EAD53E39E}">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B2" s="13">
-        <v>68.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B3" s="13">
-        <v>71.760000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B4" s="13">
-        <v>77.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="13">
-        <v>82.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B6" s="13">
-        <v>85.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="13">
-        <v>89.47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B8" s="13">
-        <v>92.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="13">
-        <v>98.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="13">
-        <v>99.92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="13">
-        <v>99.94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B12" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="13">
-        <v>100.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B14" s="13">
-        <v>102.84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B15" s="13">
-        <v>105.84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B16" s="13">
-        <v>109.46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="13">
-        <v>113.15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B18" s="13">
-        <v>119.04</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B19" s="13">
-        <v>137.22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B20" s="13">
-        <v>160.59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B21" s="13">
-        <v>167.17418999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B22" s="13">
-        <v>173.35963502999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>2026</v>
-      </c>
-      <c r="B23" s="13">
-        <v>173.35963502999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>2027</v>
-      </c>
-      <c r="B24" s="13">
-        <v>173.35963502999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/input/time_series_factor.xlsx
+++ b/input/time_series_factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D26F8-4C56-41A3-9659-D8CCCDCE3C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF7569D-8592-4ECD-9DDC-EAF81A288332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="4035" windowWidth="28800" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -11553,7 +11553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C683A821-437B-4D81-97F1-7CA9A663AC24}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12275,7 +12275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF94849-A6CD-439B-B269-5434C4C1F099}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/input/time_series_factor.xlsx
+++ b/input/time_series_factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF188F0-F0F4-4A89-8773-16FACFEA7951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F60848-5004-4164-9248-4DC6908D94BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PL_disability_adjustment" sheetId="25" r:id="rId1"/>
@@ -21,19 +21,20 @@
     <sheet name="PL_fertility_adjustment" sheetId="19" r:id="rId6"/>
     <sheet name="PL_utility_adj_smales" sheetId="16" r:id="rId7"/>
     <sheet name="PL_utility_adj_sfemales" sheetId="17" r:id="rId8"/>
-    <sheet name="PL_utility_adj_couples" sheetId="18" r:id="rId9"/>
-    <sheet name="HU_gdp" sheetId="2" r:id="rId10"/>
-    <sheet name="HU_inflation" sheetId="7" r:id="rId11"/>
-    <sheet name="HU_wage_growth" sheetId="8" r:id="rId12"/>
-    <sheet name="UK_saving_returns" sheetId="9" r:id="rId13"/>
-    <sheet name="UK_debt_cost_low" sheetId="10" r:id="rId14"/>
-    <sheet name="UK_debt_cost_hi" sheetId="11" r:id="rId15"/>
-    <sheet name="UK_carer_hourly_wage" sheetId="13" r:id="rId16"/>
-    <sheet name="UK raw data" sheetId="12" r:id="rId17"/>
-    <sheet name="IT" sheetId="4" r:id="rId18"/>
-    <sheet name="PL_gdp" sheetId="20" r:id="rId19"/>
-    <sheet name="PL_inflation" sheetId="21" r:id="rId20"/>
-    <sheet name="PL_wage_growth" sheetId="22" r:id="rId21"/>
+    <sheet name="PL_utility_adj_all" sheetId="26" r:id="rId9"/>
+    <sheet name="PL_utility_adj_couples" sheetId="18" r:id="rId10"/>
+    <sheet name="HU_gdp" sheetId="2" r:id="rId11"/>
+    <sheet name="HU_inflation" sheetId="7" r:id="rId12"/>
+    <sheet name="HU_wage_growth" sheetId="8" r:id="rId13"/>
+    <sheet name="UK_saving_returns" sheetId="9" r:id="rId14"/>
+    <sheet name="UK_debt_cost_low" sheetId="10" r:id="rId15"/>
+    <sheet name="UK_debt_cost_hi" sheetId="11" r:id="rId16"/>
+    <sheet name="UK_carer_hourly_wage" sheetId="13" r:id="rId17"/>
+    <sheet name="UK raw data" sheetId="12" r:id="rId18"/>
+    <sheet name="IT" sheetId="4" r:id="rId19"/>
+    <sheet name="PL_gdp" sheetId="20" r:id="rId20"/>
+    <sheet name="PL_inflation" sheetId="21" r:id="rId21"/>
+    <sheet name="PL_wage_growth" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="56">
   <si>
     <t>Year</t>
   </si>
@@ -1073,11 +1074,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8855BE1A-8357-468E-B95E-E2868B6CF276}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2059</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2060</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2061</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2062</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2063</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2064</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2065</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2066</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2067</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2068</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2069</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2070</v>
       </c>
@@ -1579,14 +1580,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5368A556-88DB-4602-9465-944BD364475C}">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B1C6-B095-49F5-BE52-65A3AD804239}">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1594,260 +1597,252 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1995</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2010</v>
       </c>
       <c r="B2">
-        <v>49.625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1996</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2011</v>
       </c>
       <c r="B3">
-        <v>51.401000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1997</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2012</v>
       </c>
       <c r="B4">
-        <v>56.591000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1998</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2013</v>
       </c>
       <c r="B5">
-        <v>56.639000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1999</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2014</v>
       </c>
       <c r="B6">
-        <v>58.283999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2000</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2015</v>
       </c>
       <c r="B7">
-        <v>62.091999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2001</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2016</v>
       </c>
       <c r="B8">
-        <v>69.866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2002</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2017</v>
       </c>
       <c r="B9">
-        <v>79.722999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2003</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2018</v>
       </c>
       <c r="B10">
-        <v>80.504000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2004</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2019</v>
       </c>
       <c r="B11">
-        <v>85.302999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2005</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2020</v>
       </c>
       <c r="B12">
-        <v>88.814999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2006</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2021</v>
       </c>
       <c r="B13">
-        <v>86.427999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2007</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2022</v>
       </c>
       <c r="B14">
-        <v>95.81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2008</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2023</v>
       </c>
       <c r="B15">
-        <v>100.345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2009</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2024</v>
       </c>
       <c r="B16">
-        <v>93.822999999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2010</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2025</v>
       </c>
       <c r="B17">
-        <v>97.891000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2011</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2026</v>
       </c>
       <c r="B18">
-        <v>98.388999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2012</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2027</v>
       </c>
       <c r="B19">
-        <v>97.762</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>2013</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2028</v>
       </c>
       <c r="B20">
-        <v>97.953000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>2014</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2029</v>
       </c>
       <c r="B21">
-        <v>97.671999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2015</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2030</v>
       </c>
       <c r="B22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>2016</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2031</v>
       </c>
       <c r="B23">
-        <v>100.854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>2017</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2032</v>
       </c>
       <c r="B24">
-        <v>105.68899999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>2018</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2033</v>
       </c>
       <c r="B25">
-        <v>107.44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>2019</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2034</v>
       </c>
       <c r="B26">
-        <v>110.32899999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>2020</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2035</v>
       </c>
       <c r="B27">
-        <v>108.744</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>2021</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2036</v>
       </c>
       <c r="B28">
-        <v>113.21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>2022</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2037</v>
       </c>
       <c r="B29">
-        <v>118.48699999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>2023</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2038</v>
       </c>
       <c r="B30">
-        <v>139.10300000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>2024</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2039</v>
       </c>
       <c r="B31">
-        <v>139.93761800000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>2025</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2040</v>
       </c>
       <c r="B32">
-        <v>142.45649512400001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>2026</v>
-      </c>
-      <c r="B33">
-        <v>146.872646472844</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1856,14 +1851,291 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5368A556-88DB-4602-9465-944BD364475C}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>49.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>51.401000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>56.591000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <v>56.639000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <v>58.283999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>62.091999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>69.866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>79.722999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>80.504000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>85.302999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>88.814999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>86.427999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>95.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>100.345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>93.822999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>97.891000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>98.388999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>97.762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>97.953000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B21">
+        <v>97.671999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>100.854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>105.68899999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B25">
+        <v>107.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B26">
+        <v>110.32899999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B27">
+        <v>108.744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B28">
+        <v>113.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B29">
+        <v>118.48699999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B30">
+        <v>139.10300000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B31">
+        <v>139.93761800000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B32">
+        <v>142.45649512400001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B33">
+        <v>146.872646472844</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2B7FF6-C3ED-409F-83AB-FB5EAD53E39E}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>2005</v>
       </c>
@@ -1879,7 +2151,7 @@
         <v>68.98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2006</v>
       </c>
@@ -1887,7 +2159,7 @@
         <v>71.760000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2007</v>
       </c>
@@ -1895,7 +2167,7 @@
         <v>77.45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2008</v>
       </c>
@@ -1903,7 +2175,7 @@
         <v>82.12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>2009</v>
       </c>
@@ -1911,7 +2183,7 @@
         <v>85.43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>2010</v>
       </c>
@@ -1919,7 +2191,7 @@
         <v>89.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>2011</v>
       </c>
@@ -1927,7 +2199,7 @@
         <v>92.98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>2012</v>
       </c>
@@ -1935,7 +2207,7 @@
         <v>98.24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
@@ -1943,7 +2215,7 @@
         <v>99.92</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>2014</v>
       </c>
@@ -1951,7 +2223,7 @@
         <v>99.94</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>2015</v>
       </c>
@@ -1959,7 +2231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>2016</v>
       </c>
@@ -1967,7 +2239,7 @@
         <v>100.45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>2017</v>
       </c>
@@ -1975,7 +2247,7 @@
         <v>102.84</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>2018</v>
       </c>
@@ -1983,7 +2255,7 @@
         <v>105.84</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>2019</v>
       </c>
@@ -1991,7 +2263,7 @@
         <v>109.46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>2020</v>
       </c>
@@ -1999,7 +2271,7 @@
         <v>113.15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>2021</v>
       </c>
@@ -2007,7 +2279,7 @@
         <v>119.04</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>2022</v>
       </c>
@@ -2015,7 +2287,7 @@
         <v>137.22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>2023</v>
       </c>
@@ -2023,7 +2295,7 @@
         <v>160.59</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>2024</v>
       </c>
@@ -2031,7 +2303,7 @@
         <v>167.17418999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>2025</v>
       </c>
@@ -2039,7 +2311,7 @@
         <v>173.35963502999996</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>2026</v>
       </c>
@@ -2047,7 +2319,7 @@
         <v>173.35963502999996</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>2027</v>
       </c>
@@ -2061,15 +2333,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3F720F-7C77-40C9-9D26-48C5FF4C5828}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2011</v>
       </c>
@@ -2085,7 +2357,7 @@
         <v>94.248199470068826</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -2093,7 +2365,7 @@
         <v>95.957325551117478</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -2101,7 +2373,7 @@
         <v>99.174362114125685</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2014</v>
       </c>
@@ -2109,7 +2381,7 @@
         <v>100.66371648026524</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -2117,7 +2389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2016</v>
       </c>
@@ -2125,7 +2397,7 @@
         <v>100.1526314090364</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -2133,7 +2405,7 @@
         <v>108.9715723527241</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -2141,7 +2413,7 @@
         <v>119.4209877683267</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -2149,7 +2421,7 @@
         <v>131.86907674284208</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -2157,7 +2429,7 @@
         <v>133.30054140014889</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -2165,329 +2437,12 @@
         <v>132.02654924666311</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2022</v>
       </c>
       <c r="B13">
         <v>134.31986990977705</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE1C571-12D2-48EC-9676-C9293E844074}">
-  <dimension ref="A1:B38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1986</v>
-      </c>
-      <c r="B2" s="3">
-        <v>4.6286405160227334E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1987</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.011788658083403E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1988</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.12856812528973971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1989</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.13600529394329053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1990</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-4.1070497545090956E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1991</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5.7350544024686867E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1992</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5.7631202236563261E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1993</v>
-      </c>
-      <c r="B9" s="3">
-        <v>7.8989706216779254E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1994</v>
-      </c>
-      <c r="B10" s="3">
-        <v>-1.128760392020467E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1995</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9.2160859105373527E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1996</v>
-      </c>
-      <c r="B12" s="3">
-        <v>8.5586180972958781E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1997</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.13646101577698233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1998</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.12375668034877796</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1999</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.14456105557563292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2000</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.2753813678981984E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2001</v>
-      </c>
-      <c r="B17" s="3">
-        <v>-2.1653766849825229E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2002</v>
-      </c>
-      <c r="B18" s="3">
-        <v>-3.0859935638595126E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2003</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.13021265938759741</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2004</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.11284628713988498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2005</v>
-      </c>
-      <c r="B21" s="3">
-        <v>9.5700435119939753E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2006</v>
-      </c>
-      <c r="B22" s="3">
-        <v>8.3497102825924818E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2007</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5.4036728450648441E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2008</v>
-      </c>
-      <c r="B24" s="3">
-        <v>-0.16066262517109864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2009</v>
-      </c>
-      <c r="B25" s="3">
-        <v>8.877196143526267E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2010</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5.6774110668480482E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2011</v>
-      </c>
-      <c r="B27" s="3">
-        <v>-2.7392490880683962E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2012</v>
-      </c>
-      <c r="B28" s="3">
-        <v>-2.2124513898473808E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2013</v>
-      </c>
-      <c r="B29" s="3">
-        <v>7.5335930021486197E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2014</v>
-      </c>
-      <c r="B30" s="3">
-        <v>7.9340966880817376E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2015</v>
-      </c>
-      <c r="B31" s="3">
-        <v>4.2381070018058686E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2016</v>
-      </c>
-      <c r="B32" s="3">
-        <v>-4.8974784087532974E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2017</v>
-      </c>
-      <c r="B33" s="3">
-        <v>7.0170871889905673E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2018</v>
-      </c>
-      <c r="B34" s="3">
-        <v>2.840535022977253E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2019</v>
-      </c>
-      <c r="B35" s="3">
-        <v>6.3714730205470804E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2020</v>
-      </c>
-      <c r="B36" s="3">
-        <v>-7.3040697759606754E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2021</v>
-      </c>
-      <c r="B37" s="3">
-        <v>4.9303785520141474E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2022</v>
-      </c>
-      <c r="B38" s="3">
-        <v>4.6286405160227334E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2496,6 +2451,323 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE1C571-12D2-48EC-9676-C9293E844074}">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1986</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4.6286405160227334E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1987</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.011788658083403E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1988</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.12856812528973971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1989</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.13600529394329053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1990</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-4.1070497545090956E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1991</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5.7350544024686867E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1992</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5.7631202236563261E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1993</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7.8989706216779254E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1994</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-1.128760392020467E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1995</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.2160859105373527E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1996</v>
+      </c>
+      <c r="B12" s="3">
+        <v>8.5586180972958781E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1997</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.13646101577698233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1998</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.12375668034877796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1999</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.14456105557563292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2000</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.2753813678981984E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2001</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-2.1653766849825229E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2002</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-3.0859935638595126E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2003</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.13021265938759741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.11284628713988498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2005</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9.5700435119939753E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2006</v>
+      </c>
+      <c r="B22" s="3">
+        <v>8.3497102825924818E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2007</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5.4036728450648441E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2008</v>
+      </c>
+      <c r="B24" s="3">
+        <v>-0.16066262517109864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2009</v>
+      </c>
+      <c r="B25" s="3">
+        <v>8.877196143526267E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2010</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5.6774110668480482E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2011</v>
+      </c>
+      <c r="B27" s="3">
+        <v>-2.7392490880683962E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2012</v>
+      </c>
+      <c r="B28" s="3">
+        <v>-2.2124513898473808E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2013</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7.5335930021486197E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2014</v>
+      </c>
+      <c r="B30" s="3">
+        <v>7.9340966880817376E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2015</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4.2381070018058686E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="3">
+        <v>-4.8974784087532974E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2017</v>
+      </c>
+      <c r="B33" s="3">
+        <v>7.0170871889905673E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2.840535022977253E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2019</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6.3714730205470804E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2020</v>
+      </c>
+      <c r="B36" s="3">
+        <v>-7.3040697759606754E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2021</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4.9303785520141474E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4.6286405160227334E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF70C8B1-8A2A-4CB2-AE85-70911F99E869}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -2503,9 +2775,9 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -2521,7 +2793,7 @@
         <v>6.0198436757189541E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -2529,7 +2801,7 @@
         <v>0.16844999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -2537,7 +2809,7 @@
         <v>0.14020833333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -2545,7 +2817,7 @@
         <v>0.13783333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -2553,7 +2825,7 @@
         <v>0.13462499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -2561,7 +2833,7 @@
         <v>0.12176666666666668</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -2569,7 +2841,7 @@
         <v>0.11730833333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -2577,7 +2849,7 @@
         <v>0.11916666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -2585,7 +2857,7 @@
         <v>0.10499166666666665</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -2593,7 +2865,7 @@
         <v>8.4600000000000009E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -2601,7 +2873,7 @@
         <v>8.0033333333333359E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -2609,7 +2881,7 @@
         <v>7.3700000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -2617,7 +2889,7 @@
         <v>7.1808333333333349E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -2625,7 +2897,7 @@
         <v>7.6283333333333328E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -2633,7 +2905,7 @@
         <v>9.0599999999999972E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -2641,7 +2913,7 @@
         <v>0.10090833333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -2649,7 +2921,7 @@
         <v>9.2591666666666669E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -2657,7 +2929,7 @@
         <v>8.7499999999999981E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -2665,7 +2937,7 @@
         <v>7.4383333333333329E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -2673,7 +2945,7 @@
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -2681,7 +2953,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -2689,7 +2961,7 @@
         <v>4.331666666666667E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2016</v>
       </c>
@@ -2697,7 +2969,7 @@
         <v>3.9683333333333334E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2017</v>
       </c>
@@ -2705,7 +2977,7 @@
         <v>3.7991666666666667E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -2713,7 +2985,7 @@
         <v>3.7691666666666665E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -2721,7 +2993,7 @@
         <v>3.6141666666666662E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2020</v>
       </c>
@@ -2729,7 +3001,7 @@
         <v>3.5466666666666667E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -2737,7 +3009,7 @@
         <v>3.8266666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -2750,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5D1202-306C-4A3E-BE31-47D9872C9300}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -2758,9 +3030,9 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2768,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -2776,7 +3048,7 @@
         <v>0.15704228576200643</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -2784,7 +3056,7 @@
         <v>0.22755833333333339</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -2792,7 +3064,7 @@
         <v>0.22240833333333332</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -2800,7 +3072,7 @@
         <v>0.22367499999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -2808,7 +3080,7 @@
         <v>0.21951666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -2816,7 +3088,7 @@
         <v>0.19584999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -2824,7 +3096,7 @@
         <v>0.18845833333333334</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -2832,7 +3104,7 @@
         <v>0.17802499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -2840,7 +3112,7 @@
         <v>0.15925000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -2848,7 +3120,7 @@
         <v>0.15108333333333335</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -2856,7 +3128,7 @@
         <v>0.1561916666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -2864,7 +3136,7 @@
         <v>0.16120833333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -2872,7 +3144,7 @@
         <v>0.16125833333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -2880,7 +3152,7 @@
         <v>0.15259999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -2888,7 +3160,7 @@
         <v>0.15983333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -2896,7 +3168,7 @@
         <v>0.16043333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -2904,7 +3176,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -2912,7 +3184,7 @@
         <v>0.16936666666666664</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -2920,7 +3192,7 @@
         <v>0.17374999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -2928,7 +3200,7 @@
         <v>0.17915</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -2936,7 +3208,7 @@
         <v>0.17576666666666668</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -2944,7 +3216,7 @@
         <v>0.17913333333333334</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2016</v>
       </c>
@@ -2952,7 +3224,7 @@
         <v>0.17950833333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2017</v>
       </c>
@@ -2960,7 +3232,7 @@
         <v>0.17944166666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -2968,7 +3240,7 @@
         <v>0.18666666666666665</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -2976,7 +3248,7 @@
         <v>0.20248333333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2020</v>
       </c>
@@ -2984,7 +3256,7 @@
         <v>0.20790000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -2992,7 +3264,7 @@
         <v>0.21439999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -3005,7 +3277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C9E94E-195D-449C-95FA-8827E1CD938F}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3013,9 +3285,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3023,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -3031,7 +3303,7 @@
         <v>9.0451221008231997</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -3039,7 +3311,7 @@
         <v>9.1220556745181991</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -3047,7 +3319,7 @@
         <v>8.9177939646201878</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3055,7 +3327,7 @@
         <v>8.7106598984771573</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -3063,7 +3335,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -3071,7 +3343,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -3079,7 +3351,7 @@
         <v>9.1360476663356494</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -3087,7 +3359,7 @@
         <v>9.2263056092843314</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -3095,7 +3367,7 @@
         <v>9.3767705382436262</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -3103,7 +3375,7 @@
         <v>9.6103896103896105</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -3111,7 +3383,7 @@
         <v>9.9724011039558409</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -3119,7 +3391,7 @@
         <v>9.9283154121863806</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -3132,7 +3404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8E4EE1-1BD6-4E11-9F6E-85D51F484400}">
   <dimension ref="A1:BG120"/>
   <sheetViews>
@@ -3140,9 +3412,9 @@
       <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -3210,7 +3482,7 @@
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -3251,7 +3523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -3319,7 +3591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3394,7 +3666,7 @@
         <v>1.0242007015521464</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3443,7 +3715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3497,7 +3769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.45">
       <c r="E7" s="10">
         <f>E8-1</f>
         <v>1987</v>
@@ -3522,7 +3794,7 @@
       <c r="AS7" s="10"/>
       <c r="AT7" s="10"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>1988</v>
       </c>
@@ -3634,7 +3906,7 @@
         <v>3.7149797570850209</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>1989</v>
       </c>
@@ -3791,7 +4063,7 @@
         <v>3.815384615384616</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>1990</v>
       </c>
@@ -3950,7 +4222,7 @@
         <v>3.9157894736842116</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>1991</v>
       </c>
@@ -4113,7 +4385,7 @@
         <v>4.2170040485829974</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>1992</v>
       </c>
@@ -4276,7 +4548,7 @@
         <v>4.5182186234817827</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>1993</v>
       </c>
@@ -4439,7 +4711,7 @@
         <v>4.6186234817813778</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>1994</v>
       </c>
@@ -4602,7 +4874,7 @@
         <v>4.7190283400809738</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>1995</v>
       </c>
@@ -4768,7 +5040,7 @@
         <v>4.8194331983805689</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>1996</v>
       </c>
@@ -4934,7 +5206,7 @@
         <v>5.1206477732793543</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>1997</v>
       </c>
@@ -5100,7 +5372,7 @@
         <v>5.2210526315789503</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>1998</v>
       </c>
@@ -5266,7 +5538,7 @@
         <v>5.4218623481781414</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>1999</v>
       </c>
@@ -5432,7 +5704,7 @@
         <v>5.4218623481781414</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>2000</v>
       </c>
@@ -5598,7 +5870,7 @@
         <v>5.5222672064777356</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>2001</v>
       </c>
@@ -5750,7 +6022,7 @@
         <v>5.7230769230769258</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>2002</v>
       </c>
@@ -5902,7 +6174,7 @@
         <v>5.9238866396761161</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>2003</v>
       </c>
@@ -6054,7 +6326,7 @@
         <v>6.0242914979757103</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>2004</v>
       </c>
@@ -6206,7 +6478,7 @@
         <v>6.2251012145749014</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>2005</v>
       </c>
@@ -6358,7 +6630,7 @@
         <v>6.5263157894736867</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>2006</v>
       </c>
@@ -6510,7 +6782,7 @@
         <v>6.8275303643724712</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>2007</v>
       </c>
@@ -6662,7 +6934,7 @@
         <v>7.0283400809716614</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>2008</v>
       </c>
@@ -6828,7 +7100,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>2009</v>
       </c>
@@ -6993,7 +7265,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>2010</v>
       </c>
@@ -7156,7 +7428,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>2011</v>
       </c>
@@ -7319,7 +7591,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>2012</v>
       </c>
@@ -7482,7 +7754,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>2013</v>
       </c>
@@ -7645,7 +7917,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>2014</v>
       </c>
@@ -7808,7 +8080,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>2015</v>
       </c>
@@ -7956,7 +8228,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>2016</v>
       </c>
@@ -8078,7 +8350,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>2017</v>
       </c>
@@ -8188,7 +8460,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>2018</v>
       </c>
@@ -8298,7 +8570,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>2019</v>
       </c>
@@ -8408,7 +8680,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>2020</v>
       </c>
@@ -8518,7 +8790,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>2021</v>
       </c>
@@ -8628,7 +8900,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A42">
         <f t="shared" ref="A42:A46" si="57">A41+1</f>
         <v>2022</v>
@@ -8739,7 +9011,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A43">
         <f t="shared" si="57"/>
         <v>2023</v>
@@ -8847,7 +9119,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A44">
         <f t="shared" si="57"/>
         <v>2024</v>
@@ -8933,7 +9205,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A45">
         <f t="shared" si="57"/>
         <v>2025</v>
@@ -9010,7 +9282,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A46">
         <f t="shared" si="57"/>
         <v>2026</v>
@@ -9087,7 +9359,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.45">
       <c r="E47" s="10">
         <f>E46+1</f>
         <v>2027</v>
@@ -9154,7 +9426,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.45">
       <c r="P48" s="6">
         <v>40148</v>
       </c>
@@ -9212,7 +9484,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="49" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:59" x14ac:dyDescent="0.45">
       <c r="P49" s="6">
         <v>40513</v>
       </c>
@@ -9270,7 +9542,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="50" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:59" x14ac:dyDescent="0.45">
       <c r="P50" s="6">
         <v>40878</v>
       </c>
@@ -9330,7 +9602,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="51" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:59" x14ac:dyDescent="0.45">
       <c r="P51" s="6">
         <v>41244</v>
       </c>
@@ -9390,7 +9662,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="52" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:59" x14ac:dyDescent="0.45">
       <c r="P52" s="6">
         <v>41609</v>
       </c>
@@ -9438,7 +9710,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="53" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:59" x14ac:dyDescent="0.45">
       <c r="P53" s="6">
         <v>41974</v>
       </c>
@@ -9486,7 +9758,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="54" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="54" spans="16:59" x14ac:dyDescent="0.45">
       <c r="P54" s="6">
         <v>42339</v>
       </c>
@@ -9534,7 +9806,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="55" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="55" spans="16:59" x14ac:dyDescent="0.45">
       <c r="P55" s="6">
         <v>42705</v>
       </c>
@@ -9582,7 +9854,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="56" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="56" spans="16:59" x14ac:dyDescent="0.45">
       <c r="P56" s="6">
         <v>43070</v>
       </c>
@@ -9630,7 +9902,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="57" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="57" spans="16:59" x14ac:dyDescent="0.45">
       <c r="P57" s="6">
         <v>43435</v>
       </c>
@@ -9678,7 +9950,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="58" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="58" spans="16:59" x14ac:dyDescent="0.45">
       <c r="P58" s="6">
         <v>43800</v>
       </c>
@@ -9726,7 +9998,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="59" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="59" spans="16:59" x14ac:dyDescent="0.45">
       <c r="P59" s="6">
         <v>44166</v>
       </c>
@@ -9774,7 +10046,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="60" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="60" spans="16:59" x14ac:dyDescent="0.45">
       <c r="P60" s="6">
         <v>44531</v>
       </c>
@@ -9822,7 +10094,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="61" spans="16:59" x14ac:dyDescent="0.45">
       <c r="AV61">
         <v>2001</v>
       </c>
@@ -9860,7 +10132,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="62" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="62" spans="16:59" x14ac:dyDescent="0.45">
       <c r="AV62">
         <v>2002</v>
       </c>
@@ -9898,7 +10170,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="63" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="63" spans="16:59" x14ac:dyDescent="0.45">
       <c r="AV63">
         <v>2003</v>
       </c>
@@ -9936,7 +10208,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="64" spans="16:59" x14ac:dyDescent="0.25">
+    <row r="64" spans="16:59" x14ac:dyDescent="0.45">
       <c r="AV64">
         <v>2004</v>
       </c>
@@ -9974,7 +10246,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="65" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="65" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV65">
         <v>2005</v>
       </c>
@@ -10012,7 +10284,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="66" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="66" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV66">
         <v>2006</v>
       </c>
@@ -10050,7 +10322,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="67" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="67" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV67">
         <v>2007</v>
       </c>
@@ -10088,7 +10360,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="68" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="68" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV68">
         <v>2008</v>
       </c>
@@ -10126,7 +10398,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="69" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="69" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV69">
         <v>2009</v>
       </c>
@@ -10164,7 +10436,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="70" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="70" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV70">
         <v>2010</v>
       </c>
@@ -10202,7 +10474,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="71" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="71" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV71">
         <v>2011</v>
       </c>
@@ -10240,7 +10512,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="72" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="72" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV72">
         <v>2012</v>
       </c>
@@ -10278,7 +10550,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="73" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="73" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV73">
         <v>2013</v>
       </c>
@@ -10316,7 +10588,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="74" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="74" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV74">
         <v>2014</v>
       </c>
@@ -10354,7 +10626,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="75" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="75" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV75">
         <v>2015</v>
       </c>
@@ -10392,7 +10664,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="76" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="76" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV76">
         <v>2016</v>
       </c>
@@ -10430,7 +10702,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="77" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="77" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV77">
         <v>2017</v>
       </c>
@@ -10468,7 +10740,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="78" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="78" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV78">
         <v>2018</v>
       </c>
@@ -10506,7 +10778,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="79" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="79" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV79">
         <v>2019</v>
       </c>
@@ -10544,7 +10816,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="80" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="80" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV80">
         <v>2020</v>
       </c>
@@ -10582,7 +10854,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="81" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="81" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV81">
         <v>2021</v>
       </c>
@@ -10620,7 +10892,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="82" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="82" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV82">
         <f>AV81+1</f>
         <v>2022</v>
@@ -10634,7 +10906,7 @@
         <v>99.757148331179067</v>
       </c>
     </row>
-    <row r="83" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="83" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV83">
         <f t="shared" ref="AV83:AV120" si="64">AV82+1</f>
         <v>2023</v>
@@ -10648,7 +10920,7 @@
         <v>102.17134130563514</v>
       </c>
     </row>
-    <row r="84" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="84" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV84">
         <f t="shared" si="64"/>
         <v>2024</v>
@@ -10662,7 +10934,7 @@
         <v>104.64395944375532</v>
       </c>
     </row>
-    <row r="85" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="85" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV85">
         <f t="shared" si="64"/>
         <v>2025</v>
@@ -10676,7 +10948,7 @@
         <v>107.17641667548857</v>
       </c>
     </row>
-    <row r="86" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="86" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV86">
         <f t="shared" si="64"/>
         <v>2026</v>
@@ -10690,7 +10962,7 @@
         <v>109.77016114888056</v>
       </c>
     </row>
-    <row r="87" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="87" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV87">
         <f t="shared" si="64"/>
         <v>2027</v>
@@ -10704,7 +10976,7 @@
         <v>112.42667605817564</v>
       </c>
     </row>
-    <row r="88" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="88" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV88">
         <f t="shared" si="64"/>
         <v>2028</v>
@@ -10718,7 +10990,7 @@
         <v>115.1474804919594</v>
       </c>
     </row>
-    <row r="89" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="89" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV89">
         <f t="shared" si="64"/>
         <v>2029</v>
@@ -10732,7 +11004,7 @@
         <v>117.9341303018269</v>
       </c>
     </row>
-    <row r="90" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="90" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV90">
         <f t="shared" si="64"/>
         <v>2030</v>
@@ -10746,7 +11018,7 @@
         <v>120.78821899207334</v>
       </c>
     </row>
-    <row r="91" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="91" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV91">
         <f t="shared" si="64"/>
         <v>2031</v>
@@ -10760,7 +11032,7 @@
         <v>123.7113786309158</v>
       </c>
     </row>
-    <row r="92" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="92" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV92">
         <f t="shared" si="64"/>
         <v>2032</v>
@@ -10774,7 +11046,7 @@
         <v>126.70528078376718</v>
       </c>
     </row>
-    <row r="93" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="93" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV93">
         <f t="shared" si="64"/>
         <v>2033</v>
@@ -10788,7 +11060,7 @@
         <v>129.77163746909605</v>
       </c>
     </row>
-    <row r="94" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="94" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV94">
         <f t="shared" si="64"/>
         <v>2034</v>
@@ -10802,7 +11074,7 @@
         <v>132.912202137419</v>
       </c>
     </row>
-    <row r="95" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="95" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV95">
         <f t="shared" si="64"/>
         <v>2035</v>
@@ -10816,7 +11088,7 @@
         <v>136.12877067398526</v>
       </c>
     </row>
-    <row r="96" spans="48:59" x14ac:dyDescent="0.25">
+    <row r="96" spans="48:59" x14ac:dyDescent="0.45">
       <c r="AV96">
         <f t="shared" si="64"/>
         <v>2036</v>
@@ -10830,7 +11102,7 @@
         <v>139.42318242572699</v>
       </c>
     </row>
-    <row r="97" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="97" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV97">
         <f t="shared" si="64"/>
         <v>2037</v>
@@ -10844,7 +11116,7 @@
         <v>142.79732125306251</v>
       </c>
     </row>
-    <row r="98" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="98" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV98">
         <f t="shared" si="64"/>
         <v>2038</v>
@@ -10858,7 +11130,7 @@
         <v>146.25311660715386</v>
       </c>
     </row>
-    <row r="99" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="99" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV99">
         <f t="shared" si="64"/>
         <v>2039</v>
@@ -10872,7 +11144,7 @@
         <v>149.79254463323488</v>
       </c>
     </row>
-    <row r="100" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="100" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV100">
         <f t="shared" si="64"/>
         <v>2040</v>
@@ -10886,7 +11158,7 @@
         <v>153.41762930064039</v>
       </c>
     </row>
-    <row r="101" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="101" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV101">
         <f t="shared" si="64"/>
         <v>2041</v>
@@ -10900,7 +11172,7 @@
         <v>157.13044356018301</v>
       </c>
     </row>
-    <row r="102" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="102" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV102">
         <f t="shared" si="64"/>
         <v>2042</v>
@@ -10914,7 +11186,7 @@
         <v>160.93311052953939</v>
       </c>
     </row>
-    <row r="103" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="103" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV103">
         <f t="shared" si="64"/>
         <v>2043</v>
@@ -10928,7 +11200,7 @@
         <v>164.82780470732337</v>
       </c>
     </row>
-    <row r="104" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="104" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV104">
         <f t="shared" si="64"/>
         <v>2044</v>
@@ -10942,7 +11214,7 @@
         <v>168.81675321654077</v>
       </c>
     </row>
-    <row r="105" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="105" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV105">
         <f t="shared" si="64"/>
         <v>2045</v>
@@ -10956,7 +11228,7 @@
         <v>172.90223707813664</v>
       </c>
     </row>
-    <row r="106" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="106" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV106">
         <f t="shared" si="64"/>
         <v>2046</v>
@@ -10970,7 +11242,7 @@
         <v>177.08659251536309</v>
       </c>
     </row>
-    <row r="107" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="107" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV107">
         <f t="shared" si="64"/>
         <v>2047</v>
@@ -10984,7 +11256,7 @@
         <v>181.37221228971399</v>
       </c>
     </row>
-    <row r="108" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="108" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV108">
         <f t="shared" si="64"/>
         <v>2048</v>
@@ -10998,7 +11270,7 @@
         <v>185.76154706918993</v>
       </c>
     </row>
-    <row r="109" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="109" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV109">
         <f t="shared" si="64"/>
         <v>2049</v>
@@ -11012,7 +11284,7 @@
         <v>190.25710682967642</v>
       </c>
     </row>
-    <row r="110" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="110" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV110">
         <f t="shared" si="64"/>
         <v>2050</v>
@@ -11026,7 +11298,7 @@
         <v>194.86146229023626</v>
       </c>
     </row>
-    <row r="111" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="111" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV111">
         <f t="shared" si="64"/>
         <v>2051</v>
@@ -11040,7 +11312,7 @@
         <v>199.57724638313712</v>
       </c>
     </row>
-    <row r="112" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="112" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV112">
         <f t="shared" si="64"/>
         <v>2052</v>
@@ -11054,7 +11326,7 @@
         <v>204.40715575945461</v>
       </c>
     </row>
-    <row r="113" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="113" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV113">
         <f t="shared" si="64"/>
         <v>2053</v>
@@ -11068,7 +11340,7 @@
         <v>209.35395233111228</v>
       </c>
     </row>
-    <row r="114" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="114" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV114">
         <f t="shared" si="64"/>
         <v>2054</v>
@@ -11082,7 +11354,7 @@
         <v>214.42046485023982</v>
       </c>
     </row>
-    <row r="115" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="115" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV115">
         <f t="shared" si="64"/>
         <v>2055</v>
@@ -11096,7 +11368,7 @@
         <v>219.60959052675298</v>
       </c>
     </row>
-    <row r="116" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="116" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV116">
         <f t="shared" si="64"/>
         <v>2056</v>
@@ -11110,7 +11382,7 @@
         <v>224.92429668508001</v>
       </c>
     </row>
-    <row r="117" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="117" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV117">
         <f t="shared" si="64"/>
         <v>2057</v>
@@ -11124,7 +11396,7 @@
         <v>230.36762246098209</v>
       </c>
     </row>
-    <row r="118" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="118" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV118">
         <f t="shared" si="64"/>
         <v>2058</v>
@@ -11138,7 +11410,7 @@
         <v>235.9426805394379</v>
       </c>
     </row>
-    <row r="119" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="119" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV119">
         <f t="shared" si="64"/>
         <v>2059</v>
@@ -11152,7 +11424,7 @@
         <v>241.65265893458633</v>
       </c>
     </row>
-    <row r="120" spans="48:51" x14ac:dyDescent="0.25">
+    <row r="120" spans="48:51" x14ac:dyDescent="0.45">
       <c r="AV120">
         <f t="shared" si="64"/>
         <v>2060</v>
@@ -11171,7 +11443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB137BA4-4035-472D-AA2B-29C110ABC52B}">
   <dimension ref="A1:B74"/>
   <sheetViews>
@@ -11179,9 +11451,9 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11189,7 +11461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1988</v>
       </c>
@@ -11197,7 +11469,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1989</v>
       </c>
@@ -11205,7 +11477,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1990</v>
       </c>
@@ -11213,7 +11485,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1991</v>
       </c>
@@ -11221,7 +11493,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1992</v>
       </c>
@@ -11229,7 +11501,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1993</v>
       </c>
@@ -11237,7 +11509,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1994</v>
       </c>
@@ -11245,7 +11517,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1995</v>
       </c>
@@ -11253,7 +11525,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1996</v>
       </c>
@@ -11261,7 +11533,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1997</v>
       </c>
@@ -11269,7 +11541,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -11277,7 +11549,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1999</v>
       </c>
@@ -11285,7 +11557,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -11293,7 +11565,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -11301,7 +11573,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -11309,7 +11581,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2003</v>
       </c>
@@ -11317,7 +11589,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2004</v>
       </c>
@@ -11325,7 +11597,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2005</v>
       </c>
@@ -11333,7 +11605,7 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2006</v>
       </c>
@@ -11341,7 +11613,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2007</v>
       </c>
@@ -11349,7 +11621,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2008</v>
       </c>
@@ -11357,7 +11629,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2009</v>
       </c>
@@ -11365,7 +11637,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -11373,7 +11645,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -11381,7 +11653,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2012</v>
       </c>
@@ -11389,7 +11661,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -11397,7 +11669,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2014</v>
       </c>
@@ -11405,7 +11677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -11413,7 +11685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2016</v>
       </c>
@@ -11421,7 +11693,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2017</v>
       </c>
@@ -11429,7 +11701,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -11437,7 +11709,7 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -11445,7 +11717,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -11453,7 +11725,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -11461,7 +11733,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -11469,7 +11741,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2023</v>
       </c>
@@ -11477,7 +11749,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2024</v>
       </c>
@@ -11485,7 +11757,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2025</v>
       </c>
@@ -11493,7 +11765,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2026</v>
       </c>
@@ -11501,7 +11773,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2027</v>
       </c>
@@ -11509,7 +11781,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2028</v>
       </c>
@@ -11517,7 +11789,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2029</v>
       </c>
@@ -11525,7 +11797,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2030</v>
       </c>
@@ -11533,7 +11805,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2031</v>
       </c>
@@ -11541,7 +11813,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2032</v>
       </c>
@@ -11549,7 +11821,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2033</v>
       </c>
@@ -11557,7 +11829,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2034</v>
       </c>
@@ -11565,7 +11837,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2035</v>
       </c>
@@ -11573,7 +11845,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2036</v>
       </c>
@@ -11581,7 +11853,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2037</v>
       </c>
@@ -11589,7 +11861,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2038</v>
       </c>
@@ -11597,7 +11869,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2039</v>
       </c>
@@ -11605,7 +11877,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2040</v>
       </c>
@@ -11613,7 +11885,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2041</v>
       </c>
@@ -11621,7 +11893,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2042</v>
       </c>
@@ -11629,7 +11901,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2043</v>
       </c>
@@ -11637,7 +11909,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2044</v>
       </c>
@@ -11645,7 +11917,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2045</v>
       </c>
@@ -11653,7 +11925,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2046</v>
       </c>
@@ -11661,7 +11933,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2047</v>
       </c>
@@ -11669,7 +11941,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2048</v>
       </c>
@@ -11677,7 +11949,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2049</v>
       </c>
@@ -11685,7 +11957,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>2050</v>
       </c>
@@ -11693,7 +11965,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>2051</v>
       </c>
@@ -11701,7 +11973,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2052</v>
       </c>
@@ -11709,7 +11981,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2053</v>
       </c>
@@ -11717,7 +11989,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>2054</v>
       </c>
@@ -11725,7 +11997,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>2055</v>
       </c>
@@ -11733,7 +12005,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>2056</v>
       </c>
@@ -11741,7 +12013,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>2057</v>
       </c>
@@ -11749,7 +12021,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>2058</v>
       </c>
@@ -11757,7 +12029,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>2059</v>
       </c>
@@ -11765,289 +12037,12 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>2060</v>
       </c>
       <c r="B74">
         <v>108.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB6812C-5BB0-43F7-B52C-EA13500B4AA8}">
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1995</v>
-      </c>
-      <c r="B2">
-        <v>55.396999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1996</v>
-      </c>
-      <c r="B3">
-        <v>60.548999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1997</v>
-      </c>
-      <c r="B4">
-        <v>63.414999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1998</v>
-      </c>
-      <c r="B5">
-        <v>66.805999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1999</v>
-      </c>
-      <c r="B6">
-        <v>65.716999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2000</v>
-      </c>
-      <c r="B7">
-        <v>73.509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2001</v>
-      </c>
-      <c r="B8">
-        <v>82.805999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2002</v>
-      </c>
-      <c r="B9">
-        <v>80.259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2003</v>
-      </c>
-      <c r="B10">
-        <v>70.912999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2004</v>
-      </c>
-      <c r="B11">
-        <v>72.320999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2005</v>
-      </c>
-      <c r="B12">
-        <v>83.512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2006</v>
-      </c>
-      <c r="B13">
-        <v>87.747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2007</v>
-      </c>
-      <c r="B14">
-        <v>93.778000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2008</v>
-      </c>
-      <c r="B15">
-        <v>105.005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2009</v>
-      </c>
-      <c r="B16">
-        <v>88.53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2010</v>
-      </c>
-      <c r="B17">
-        <v>97.423000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2011</v>
-      </c>
-      <c r="B18">
-        <v>97.341999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2012</v>
-      </c>
-      <c r="B19">
-        <v>97.942999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2013</v>
-      </c>
-      <c r="B20">
-        <v>97.909000000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2014</v>
-      </c>
-      <c r="B21">
-        <v>98.691999999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2015</v>
-      </c>
-      <c r="B22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2016</v>
-      </c>
-      <c r="B23">
-        <v>95.974999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2017</v>
-      </c>
-      <c r="B24">
-        <v>100.11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2018</v>
-      </c>
-      <c r="B25">
-        <v>101.232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2019</v>
-      </c>
-      <c r="B26">
-        <v>103.419</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2020</v>
-      </c>
-      <c r="B27">
-        <v>104.27500000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2021</v>
-      </c>
-      <c r="B28">
-        <v>106.90300000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2022</v>
-      </c>
-      <c r="B29">
-        <v>115.27800000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2023</v>
-      </c>
-      <c r="B30">
-        <v>130.29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2024</v>
-      </c>
-      <c r="B31">
-        <v>134.1987</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2025</v>
-      </c>
-      <c r="B32">
-        <v>139.02985320000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2026</v>
-      </c>
-      <c r="B33">
-        <v>143.33977864920001</v>
       </c>
     </row>
   </sheetData>
@@ -12063,13 +12058,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -12077,7 +12072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -12085,7 +12080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -12093,7 +12088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -12101,7 +12096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -12115,14 +12110,291 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB6812C-5BB0-43F7-B52C-EA13500B4AA8}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>55.396999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>60.548999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>63.414999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <v>66.805999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <v>65.716999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>73.509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>82.805999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>80.259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>70.912999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>72.320999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>83.512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>87.747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>93.778000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>105.005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>88.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>97.423000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>97.341999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>97.942999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>97.909000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21">
+        <v>98.691999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>95.974999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>100.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25">
+        <v>101.232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26">
+        <v>103.419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2020</v>
+      </c>
+      <c r="B27">
+        <v>104.27500000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2021</v>
+      </c>
+      <c r="B28">
+        <v>106.90300000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2022</v>
+      </c>
+      <c r="B29">
+        <v>115.27800000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2023</v>
+      </c>
+      <c r="B30">
+        <v>130.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2024</v>
+      </c>
+      <c r="B31">
+        <v>134.1987</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2025</v>
+      </c>
+      <c r="B32">
+        <v>139.02985320000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2026</v>
+      </c>
+      <c r="B33">
+        <v>143.33977864920001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E899AF-6766-40B7-B849-58604785D824}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12130,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -12138,7 +12410,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -12146,7 +12418,7 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -12154,7 +12426,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -12162,7 +12434,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -12170,7 +12442,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -12178,7 +12450,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -12186,7 +12458,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -12194,7 +12466,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -12202,7 +12474,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -12210,7 +12482,7 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -12218,7 +12490,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -12226,7 +12498,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -12234,7 +12506,7 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -12242,7 +12514,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -12250,7 +12522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -12258,7 +12530,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -12266,7 +12538,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -12274,7 +12546,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -12282,7 +12554,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -12290,7 +12562,7 @@
         <v>108.6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2021</v>
       </c>
@@ -12298,7 +12570,7 @@
         <v>114.3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -12306,7 +12578,7 @@
         <v>129.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2023</v>
       </c>
@@ -12314,7 +12586,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2024</v>
       </c>
@@ -12322,7 +12594,7 @@
         <v>148.69999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2025</v>
       </c>
@@ -12336,15 +12608,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A47DFC1-F794-4B22-BEC7-BA8732D9DC19}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12352,7 +12624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -12360,7 +12632,7 @@
         <v>66.18348273888995</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -12368,7 +12640,7 @@
         <v>67.117493604842593</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -12376,7 +12648,7 @@
         <v>70.839133028435072</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -12384,7 +12656,7 @@
         <v>73.545881518819456</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -12392,7 +12664,7 @@
         <v>73.813917495088987</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -12400,7 +12672,7 @@
         <v>75.578743395183594</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -12408,7 +12680,7 @@
         <v>78.922964609627272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -12416,7 +12688,7 @@
         <v>84.466363314351113</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -12424,7 +12696,7 @@
         <v>89.520282035032892</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -12432,7 +12704,7 @@
         <v>90.781802831978268</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -12440,7 +12712,7 @@
         <v>91.311968637075253</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -12448,7 +12720,7 @@
         <v>92.057669138636911</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -12456,7 +12728,7 @@
         <v>91.504771893586906</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -12464,7 +12736,7 @@
         <v>93.431400913610474</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -12472,7 +12744,7 @@
         <v>96.122867563901806</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -12480,7 +12752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -12488,7 +12760,7 @@
         <v>104.48132580247275</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -12496,7 +12768,7 @@
         <v>109.02110111312125</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -12504,7 +12776,7 @@
         <v>115.03316963228426</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -12512,7 +12784,7 @@
         <v>120.13473435318336</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -12520,7 +12792,7 @@
         <v>122.93862657883929</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -12528,7 +12800,7 @@
         <v>126.15888784113081</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -12536,7 +12808,7 @@
         <v>124.43175135110593</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2023</v>
       </c>
@@ -12555,9 +12827,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12565,7 +12837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -12573,7 +12845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -12581,7 +12853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -12589,7 +12861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -12597,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -12605,7 +12877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -12613,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -12621,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -12629,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -12637,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -12645,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -12653,7 +12925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -12661,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -12669,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -12677,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -12685,7 +12957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -12693,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -12701,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -12709,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -12717,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -12725,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -12733,7 +13005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -12741,7 +13013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -12749,7 +13021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -12757,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -12765,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -12773,7 +13045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -12781,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -12789,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -12797,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -12805,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -12813,7 +13085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -12821,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -12829,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -12837,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -12845,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -12853,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -12861,7 +13133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -12869,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -12877,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -12885,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -12893,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -12901,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -12909,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -12917,7 +13189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -12925,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -12933,7 +13205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -12941,7 +13213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -12949,7 +13221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -12957,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2059</v>
       </c>
@@ -12965,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2060</v>
       </c>
@@ -12973,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2061</v>
       </c>
@@ -12981,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2062</v>
       </c>
@@ -12989,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2063</v>
       </c>
@@ -12997,7 +13269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2064</v>
       </c>
@@ -13005,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2065</v>
       </c>
@@ -13013,7 +13285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2066</v>
       </c>
@@ -13021,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2067</v>
       </c>
@@ -13029,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2068</v>
       </c>
@@ -13037,7 +13309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2069</v>
       </c>
@@ -13045,7 +13317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2070</v>
       </c>
@@ -13064,9 +13336,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13074,7 +13346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -13082,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -13090,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -13098,7 +13370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -13106,7 +13378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -13114,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -13122,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -13130,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -13138,7 +13410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -13146,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -13154,7 +13426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -13162,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -13170,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -13178,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -13186,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -13194,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -13202,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -13210,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -13218,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -13226,7 +13498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -13234,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -13242,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -13250,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -13258,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -13266,7 +13538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -13274,7 +13546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -13282,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -13290,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -13298,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -13306,7 +13578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -13314,7 +13586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -13322,7 +13594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -13330,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -13338,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -13346,7 +13618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -13354,7 +13626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -13362,7 +13634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -13370,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -13378,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -13386,7 +13658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -13394,7 +13666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -13402,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -13410,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -13418,7 +13690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -13426,7 +13698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -13434,7 +13706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -13442,7 +13714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -13450,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -13458,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -13466,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2059</v>
       </c>
@@ -13474,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2060</v>
       </c>
@@ -13482,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2061</v>
       </c>
@@ -13490,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2062</v>
       </c>
@@ -13498,7 +13770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2063</v>
       </c>
@@ -13506,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2064</v>
       </c>
@@ -13514,7 +13786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2065</v>
       </c>
@@ -13522,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2066</v>
       </c>
@@ -13530,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2067</v>
       </c>
@@ -13538,7 +13810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2068</v>
       </c>
@@ -13546,7 +13818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2069</v>
       </c>
@@ -13554,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2070</v>
       </c>
@@ -13573,12 +13845,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13592,7 +13864,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -13606,7 +13878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -13620,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -13634,7 +13906,7 @@
         <v>-0.68042582690000331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -13648,7 +13920,7 @@
         <v>-0.67229930191496556</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -13662,7 +13934,7 @@
         <v>-0.67897363322872639</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -13676,7 +13948,7 @@
         <v>-0.66203073162886494</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -13690,7 +13962,7 @@
         <v>-0.65127749552133463</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -13704,7 +13976,7 @@
         <v>-0.62856645997943639</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -13718,7 +13990,7 @@
         <v>-0.62262883931939683</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -13732,7 +14004,7 @@
         <v>-0.61386966551793498</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -13746,7 +14018,7 @@
         <v>-0.59884444696646777</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -13760,7 +14032,7 @@
         <v>-0.58212592838721533</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -13774,7 +14046,7 @@
         <v>-0.58476026852042595</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -13788,7 +14060,7 @@
         <v>-0.56894577426477011</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -13802,7 +14074,7 @@
         <v>-0.55774239163231498</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -13816,7 +14088,7 @@
         <v>-0.5546484315400706</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -13830,7 +14102,7 @@
         <v>-0.54633744534475526</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -13844,7 +14116,7 @@
         <v>-0.53660398326743075</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -13858,7 +14130,7 @@
         <v>-0.52636891781716488</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -13872,7 +14144,7 @@
         <v>-0.52739427357167223</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -13886,7 +14158,7 @@
         <v>-0.522335868711721</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -13900,7 +14172,7 @@
         <v>-0.51932161850484515</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -13914,7 +14186,7 @@
         <v>-0.51851186880903399</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -13928,7 +14200,7 @@
         <v>-0.52248458236888451</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -13942,7 +14214,7 @@
         <v>-0.51756454907723248</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -13956,7 +14228,7 @@
         <v>-0.51707659305484055</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -13970,7 +14242,7 @@
         <v>-0.51785189045280133</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -13984,7 +14256,7 @@
         <v>-0.52133458277805855</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -13998,7 +14270,7 @@
         <v>-0.52255964231049601</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -14012,7 +14284,7 @@
         <v>-0.52461978177447943</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -14026,7 +14298,7 @@
         <v>-0.52602689591038243</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -14040,7 +14312,7 @@
         <v>-0.52818471105801446</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -14054,7 +14326,7 @@
         <v>-0.52582640158760352</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -14068,7 +14340,7 @@
         <v>-0.52884537398341225</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -14082,7 +14354,7 @@
         <v>-0.53136207561516069</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -14096,7 +14368,7 @@
         <v>-0.53392813259970762</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -14110,7 +14382,7 @@
         <v>-0.53502526357346303</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -14124,7 +14396,7 @@
         <v>-0.5361827911656164</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -14138,7 +14410,7 @@
         <v>-0.53742998980006962</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -14152,7 +14424,7 @@
         <v>-0.53265366720456808</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -14166,7 +14438,7 @@
         <v>-0.52672262067763742</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -14180,7 +14452,7 @@
         <v>-0.52246561759781496</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -14194,7 +14466,7 @@
         <v>-0.51992475724234222</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -14208,7 +14480,7 @@
         <v>-0.51600574555924328</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -14222,7 +14494,7 @@
         <v>-0.51576972424348644</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -14236,7 +14508,7 @@
         <v>-0.51800776098642443</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -14250,7 +14522,7 @@
         <v>-0.51952270196948724</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -14264,7 +14536,7 @@
         <v>-0.52097143042496585</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -14278,7 +14550,7 @@
         <v>-0.51855272309252176</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2059</v>
       </c>
@@ -14292,7 +14564,7 @@
         <v>-0.51809916084156005</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2060</v>
       </c>
@@ -14306,7 +14578,7 @@
         <v>-0.51977389607061364</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2061</v>
       </c>
@@ -14320,7 +14592,7 @@
         <v>-0.51599900885427696</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2062</v>
       </c>
@@ -14334,7 +14606,7 @@
         <v>-0.51480700328602169</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2063</v>
       </c>
@@ -14348,7 +14620,7 @@
         <v>-0.51568068499828201</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2064</v>
       </c>
@@ -14362,7 +14634,7 @@
         <v>-0.51597773825575943</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2065</v>
       </c>
@@ -14376,7 +14648,7 @@
         <v>-0.50918163905100955</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2066</v>
       </c>
@@ -14390,7 +14662,7 @@
         <v>-0.51037220329257249</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2067</v>
       </c>
@@ -14404,7 +14676,7 @@
         <v>-0.50578085391324401</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2068</v>
       </c>
@@ -14418,7 +14690,7 @@
         <v>-0.50041296740445906</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2069</v>
       </c>
@@ -14432,7 +14704,7 @@
         <v>-0.50041296740445906</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2070</v>
       </c>
@@ -14457,9 +14729,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14473,7 +14745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -14487,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -14501,7 +14773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -14515,7 +14787,7 @@
         <v>-0.44081411312763502</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -14529,7 +14801,7 @@
         <v>-0.41178003442893141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -14543,7 +14815,7 @@
         <v>-0.38195691653651342</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -14557,7 +14829,7 @@
         <v>-0.35662154819469444</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -14571,7 +14843,7 @@
         <v>-0.33645665993640061</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -14585,7 +14857,7 @@
         <v>-0.31569377810596422</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -14599,7 +14871,7 @@
         <v>-0.29611480221652442</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -14613,7 +14885,7 @@
         <v>-0.279462622342386</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -14627,7 +14899,7 @@
         <v>-0.26591979180000819</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -14641,7 +14913,7 @@
         <v>-0.25543875103684177</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -14655,7 +14927,7 @@
         <v>-0.24930347300809638</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -14669,7 +14941,7 @@
         <v>-0.2471951557625644</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -14683,7 +14955,7 @@
         <v>-0.24727245707738721</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -14697,7 +14969,7 @@
         <v>-0.23666450179745918</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -14711,7 +14983,7 @@
         <v>-0.23784361977757321</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -14725,7 +14997,7 @@
         <v>-0.23889278870939884</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -14739,7 +15011,7 @@
         <v>-0.23893998110579662</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -14753,7 +15025,7 @@
         <v>-0.23843847695520243</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -14767,7 +15039,7 @@
         <v>-0.24968508459850719</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -14781,7 +15053,7 @@
         <v>-0.25091556848125485</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -14795,7 +15067,7 @@
         <v>-0.25300049353502324</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -14809,7 +15081,7 @@
         <v>-0.25769551121458001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -14823,7 +15095,7 @@
         <v>-0.26297059722398985</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -14837,7 +15109,7 @@
         <v>-0.26957256055242024</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -14851,7 +15123,7 @@
         <v>-0.27813755313923438</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -14865,7 +15137,7 @@
         <v>-0.27474637053283057</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -14879,7 +15151,7 @@
         <v>-0.28518071039366039</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -14893,7 +15165,7 @@
         <v>-0.2959050156529302</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -14907,7 +15179,7 @@
         <v>-0.2928526070865794</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -14921,7 +15193,7 @@
         <v>-0.30204917920681157</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -14935,7 +15207,7 @@
         <v>-0.32304908725990761</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -14949,7 +15221,7 @@
         <v>-0.32697846249115198</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -14963,7 +15235,7 @@
         <v>-0.33007523822817458</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -14977,7 +15249,7 @@
         <v>-0.34395374911145921</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -14991,7 +15263,7 @@
         <v>-0.32911187304579681</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -15005,7 +15277,7 @@
         <v>-0.32707905887567962</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -15019,7 +15291,7 @@
         <v>-0.32548082652979621</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -15033,7 +15305,7 @@
         <v>-0.32367111158351802</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -15047,7 +15319,7 @@
         <v>-0.31183478961522498</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -15061,7 +15333,7 @@
         <v>-0.30933783525634517</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -15075,7 +15347,7 @@
         <v>-0.295502572399851</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -15089,7 +15361,7 @@
         <v>-0.28426566851705959</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -15103,7 +15375,7 @@
         <v>-0.2846970607117626</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -15117,7 +15389,7 @@
         <v>-0.29652418423720162</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -15131,7 +15403,7 @@
         <v>-0.31354110133198604</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -15145,7 +15417,7 @@
         <v>-0.3278678462801522</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -15159,7 +15431,7 @@
         <v>-0.33932540739172184</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2059</v>
       </c>
@@ -15173,7 +15445,7 @@
         <v>-0.33891825783445723</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2060</v>
       </c>
@@ -15187,7 +15459,7 @@
         <v>-0.33791821188593724</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2061</v>
       </c>
@@ -15201,7 +15473,7 @@
         <v>-0.33627771003385082</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2062</v>
       </c>
@@ -15215,7 +15487,7 @@
         <v>-0.33352763519739703</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2063</v>
       </c>
@@ -15229,7 +15501,7 @@
         <v>-0.33028054032751103</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2064</v>
       </c>
@@ -15243,7 +15515,7 @@
         <v>-0.32636589095194396</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2065</v>
       </c>
@@ -15257,7 +15529,7 @@
         <v>-0.32296966045752384</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2066</v>
       </c>
@@ -15271,7 +15543,7 @@
         <v>-0.3197457208767488</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2067</v>
       </c>
@@ -15285,7 +15557,7 @@
         <v>-0.31773659008754962</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2068</v>
       </c>
@@ -15299,7 +15571,7 @@
         <v>-0.31670999077073703</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2069</v>
       </c>
@@ -15313,7 +15585,7 @@
         <v>-0.31670999077073703</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2070</v>
       </c>
@@ -15340,9 +15612,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15350,7 +15622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -15358,7 +15630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -15366,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -15374,7 +15646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -15382,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -15390,7 +15662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -15398,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -15406,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -15414,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -15422,7 +15694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -15430,7 +15702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -15438,7 +15710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -15446,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -15454,7 +15726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -15462,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -15470,7 +15742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -15478,7 +15750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -15486,7 +15758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -15494,7 +15766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -15502,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -15510,7 +15782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -15518,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -15526,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -15534,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -15542,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -15550,7 +15822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -15558,7 +15830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -15566,7 +15838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -15574,7 +15846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -15582,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -15590,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -15611,9 +15883,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15621,7 +15893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -15629,7 +15901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -15637,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -15645,7 +15917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -15653,7 +15925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -15661,7 +15933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -15669,7 +15941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -15677,7 +15949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -15685,7 +15957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -15693,7 +15965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -15701,7 +15973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -15709,7 +15981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -15717,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -15725,7 +15997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -15733,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -15741,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -15749,7 +16021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -15757,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -15765,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -15773,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -15781,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -15789,7 +16061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -15797,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -15805,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -15813,7 +16085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -15821,7 +16093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -15829,7 +16101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -15837,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -15845,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -15853,7 +16125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -15861,7 +16133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -15875,16 +16147,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B1C6-B095-49F5-BE52-65A3AD804239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24975FDF-8D77-4D4B-8592-0CCFC0F7BE8F}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15892,7 +16162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -15900,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -15908,7 +16178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -15916,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -15924,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -15932,7 +16202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -15940,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -15948,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -15956,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -15964,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -15972,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -15980,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -15988,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -15996,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -16004,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -16012,7 +16282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -16020,7 +16290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -16028,7 +16298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -16036,7 +16306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -16044,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -16052,7 +16322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -16060,7 +16330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -16068,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -16076,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -16084,7 +16354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -16092,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -16100,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -16108,7 +16378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -16116,7 +16386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -16124,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -16132,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2040</v>
       </c>
